--- a/Data/AgingMatured.xlsx
+++ b/Data/AgingMatured.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="437">
   <si>
     <t>Cust ID</t>
   </si>
@@ -43,226 +43,1288 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>18030101254</t>
-  </si>
-  <si>
-    <t>90000000823</t>
-  </si>
-  <si>
-    <t>18030101576</t>
-  </si>
-  <si>
-    <t>90000043275</t>
-  </si>
-  <si>
-    <t>90000030746</t>
-  </si>
-  <si>
-    <t>18010119191</t>
-  </si>
-  <si>
-    <t>1803001366</t>
-  </si>
-  <si>
-    <t>18030104425</t>
-  </si>
-  <si>
-    <t>18010112922</t>
-  </si>
-  <si>
-    <t>18030099740</t>
-  </si>
-  <si>
-    <t>18030103129</t>
-  </si>
-  <si>
-    <t>90000042577</t>
-  </si>
-  <si>
-    <t>18030100574</t>
-  </si>
-  <si>
-    <t>18010119160</t>
-  </si>
-  <si>
-    <t>Shanti Pharmacy</t>
-  </si>
-  <si>
-    <t>Maa O Shisho General Hospital</t>
-  </si>
-  <si>
-    <t>Jom Jom Pharmacy</t>
-  </si>
-  <si>
-    <t>Jarina Salam Hospital</t>
-  </si>
-  <si>
-    <t>Peoples Private Hospital</t>
-  </si>
-  <si>
-    <t>Alfaz Medical Hall</t>
-  </si>
-  <si>
-    <t>Tamim Medical Hall</t>
-  </si>
-  <si>
-    <t>Suboj Pharmacy</t>
-  </si>
-  <si>
-    <t>Ahmed Oushad Ghar</t>
-  </si>
-  <si>
-    <t>S S Medical Hall</t>
-  </si>
-  <si>
-    <t>Dhaka Clinic</t>
-  </si>
-  <si>
-    <t>Akota General Private Hospital</t>
-  </si>
-  <si>
-    <t>Anika Medicine Corner</t>
-  </si>
-  <si>
-    <t>Al Modina Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalie Sree Para B Baria                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamalpur Bhairab                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jail Road B Baria                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shibpur Bazar Nabinagar B.Baria                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C&amp;B Road Narsingdi                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fertilizer Gate Polash Narshingdi                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valanagar Narsingdi                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nilkoti Pagla Bazar                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C &amp; B Road Narshingdi                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potia NSD                                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charsindur Bazar Ghorashal Polash Narsingdi                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basail Narsingdi                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satirpara Narsingdi                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Station Road Narshingdi                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB71                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB33                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB75                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB22                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB62                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB12                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB21                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB11                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV180-382188     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV180-377834     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV180-373204     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV180-392594     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV180-393080     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV180-381472     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV180-381648     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV180-382159     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV180-382336     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV180-382243     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV180-382894     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV180-394698     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV180-382451     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV180-388541     </t>
+    <t>90000028229</t>
+  </si>
+  <si>
+    <t>90000025494</t>
+  </si>
+  <si>
+    <t>44037801632</t>
+  </si>
+  <si>
+    <t>44019001487</t>
+  </si>
+  <si>
+    <t>44019000528</t>
+  </si>
+  <si>
+    <t>90000025671</t>
+  </si>
+  <si>
+    <t>90000041678</t>
+  </si>
+  <si>
+    <t>44031000794</t>
+  </si>
+  <si>
+    <t>44019004795</t>
+  </si>
+  <si>
+    <t>44019001544</t>
+  </si>
+  <si>
+    <t>44019003218</t>
+  </si>
+  <si>
+    <t>90000029246</t>
+  </si>
+  <si>
+    <t>4401900199</t>
+  </si>
+  <si>
+    <t>44031102640</t>
+  </si>
+  <si>
+    <t>90000033723</t>
+  </si>
+  <si>
+    <t>90000043217</t>
+  </si>
+  <si>
+    <t>4401900145</t>
+  </si>
+  <si>
+    <t>4401900743</t>
+  </si>
+  <si>
+    <t>90000015767</t>
+  </si>
+  <si>
+    <t>90000035764</t>
+  </si>
+  <si>
+    <t>90000018346</t>
+  </si>
+  <si>
+    <t>44037801655</t>
+  </si>
+  <si>
+    <t>44019007168</t>
+  </si>
+  <si>
+    <t>44019004691</t>
+  </si>
+  <si>
+    <t>90000043456</t>
+  </si>
+  <si>
+    <t>44019002591</t>
+  </si>
+  <si>
+    <t>44019000080</t>
+  </si>
+  <si>
+    <t>44019008675</t>
+  </si>
+  <si>
+    <t>44037801992</t>
+  </si>
+  <si>
+    <t>90000038062</t>
+  </si>
+  <si>
+    <t>44037801368</t>
+  </si>
+  <si>
+    <t>44031100136</t>
+  </si>
+  <si>
+    <t>4406114619</t>
+  </si>
+  <si>
+    <t>44031106403</t>
+  </si>
+  <si>
+    <t>90000003945</t>
+  </si>
+  <si>
+    <t>90000028957</t>
+  </si>
+  <si>
+    <t>90000031801</t>
+  </si>
+  <si>
+    <t>44019000601</t>
+  </si>
+  <si>
+    <t>44031000058</t>
+  </si>
+  <si>
+    <t>90000009207</t>
+  </si>
+  <si>
+    <t>44019001555</t>
+  </si>
+  <si>
+    <t>44031000237</t>
+  </si>
+  <si>
+    <t>44031101408</t>
+  </si>
+  <si>
+    <t>44019001598</t>
+  </si>
+  <si>
+    <t>90000044132</t>
+  </si>
+  <si>
+    <t>44019001016</t>
+  </si>
+  <si>
+    <t>44037800460</t>
+  </si>
+  <si>
+    <t>44031100319</t>
+  </si>
+  <si>
+    <t>44031106947</t>
+  </si>
+  <si>
+    <t>4401900187</t>
+  </si>
+  <si>
+    <t>44019003221</t>
+  </si>
+  <si>
+    <t>44019003686</t>
+  </si>
+  <si>
+    <t>44019003034</t>
+  </si>
+  <si>
+    <t>4406114616</t>
+  </si>
+  <si>
+    <t>44019002541</t>
+  </si>
+  <si>
+    <t>4406114633</t>
+  </si>
+  <si>
+    <t>90000014597</t>
+  </si>
+  <si>
+    <t>44019000635</t>
+  </si>
+  <si>
+    <t>44019001711</t>
+  </si>
+  <si>
+    <t>44019001839</t>
+  </si>
+  <si>
+    <t>44031000626</t>
+  </si>
+  <si>
+    <t>44019003399</t>
+  </si>
+  <si>
+    <t>44019007278</t>
+  </si>
+  <si>
+    <t>44031106474</t>
+  </si>
+  <si>
+    <t>4401900410</t>
+  </si>
+  <si>
+    <t>90000003859</t>
+  </si>
+  <si>
+    <t>44019003610</t>
+  </si>
+  <si>
+    <t>44031000077</t>
+  </si>
+  <si>
+    <t>90000041489</t>
+  </si>
+  <si>
+    <t>44031102577</t>
+  </si>
+  <si>
+    <t>44019000379</t>
+  </si>
+  <si>
+    <t>4406114683</t>
+  </si>
+  <si>
+    <t>44037801422</t>
+  </si>
+  <si>
+    <t>44031101606</t>
+  </si>
+  <si>
+    <t>44037800910</t>
+  </si>
+  <si>
+    <t>44019000286</t>
+  </si>
+  <si>
+    <t>90000018632</t>
+  </si>
+  <si>
+    <t>44037799672</t>
+  </si>
+  <si>
+    <t>4406114696</t>
+  </si>
+  <si>
+    <t>44019004036</t>
+  </si>
+  <si>
+    <t>44019001631</t>
+  </si>
+  <si>
+    <t>44031100484</t>
+  </si>
+  <si>
+    <t>44019002997</t>
+  </si>
+  <si>
+    <t>44037801083</t>
+  </si>
+  <si>
+    <t>44031103020</t>
+  </si>
+  <si>
+    <t>44037801235</t>
+  </si>
+  <si>
+    <t>90000016522</t>
+  </si>
+  <si>
+    <t>44019001746</t>
+  </si>
+  <si>
+    <t>44019002378</t>
+  </si>
+  <si>
+    <t>Bondhon Hospital</t>
+  </si>
+  <si>
+    <t>Maa Medicine Corner</t>
+  </si>
+  <si>
+    <t>Tahsin Pharmacy</t>
+  </si>
+  <si>
+    <t>Shikder Pharmacy</t>
+  </si>
+  <si>
+    <t>Dr. Arobindu</t>
+  </si>
+  <si>
+    <t>SKH Pharmacy</t>
+  </si>
+  <si>
+    <t>Sarder Medicine Corner</t>
+  </si>
+  <si>
+    <t>Dr Akber Hossain</t>
+  </si>
+  <si>
+    <t>Mubin Pharmacy</t>
+  </si>
+  <si>
+    <t>Lily Pharmacy</t>
+  </si>
+  <si>
+    <t>Aritra Pharmacy</t>
+  </si>
+  <si>
+    <t>Al Nur Hospital</t>
+  </si>
+  <si>
+    <t>Tanny Pharmacy</t>
+  </si>
+  <si>
+    <t>Shahana Clinic</t>
+  </si>
+  <si>
+    <t>Musaffa Medicine Shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Janoni Pharmacy </t>
+  </si>
+  <si>
+    <t>Rudra Pharmacy</t>
+  </si>
+  <si>
+    <t>Zaman Pharmacy</t>
+  </si>
+  <si>
+    <t>Morol Pharmacy</t>
+  </si>
+  <si>
+    <t>Foraze Medical Hall</t>
+  </si>
+  <si>
+    <t>Shaik Medical Hall</t>
+  </si>
+  <si>
+    <t>Faruk Medical Hall</t>
+  </si>
+  <si>
+    <t>Shirin Pharmacy</t>
+  </si>
+  <si>
+    <t>Maa Medical Hall</t>
+  </si>
+  <si>
+    <t>Al Modina Clinic</t>
+  </si>
+  <si>
+    <t>Sumon Pharmacy</t>
+  </si>
+  <si>
+    <t>Primary Health Care Center</t>
+  </si>
+  <si>
+    <t>Ibn Sina Diagnostic Center</t>
+  </si>
+  <si>
+    <t>Sher E Bangla Clinic</t>
+  </si>
+  <si>
+    <t>Pobitra Pharmacy</t>
+  </si>
+  <si>
+    <t>Ram Krishna pharmacy</t>
+  </si>
+  <si>
+    <t>Shawn Medical Hall</t>
+  </si>
+  <si>
+    <t>Munshi Madical</t>
+  </si>
+  <si>
+    <t>Shaik Pharmacy</t>
+  </si>
+  <si>
+    <t>Dalia Clinic</t>
+  </si>
+  <si>
+    <t>Bismillah Pharmacy</t>
+  </si>
+  <si>
+    <t>Rajoni Pharmacy</t>
+  </si>
+  <si>
+    <t>Imtiaz Pharmacy</t>
+  </si>
+  <si>
+    <t>Satkhira Pharmacy</t>
+  </si>
+  <si>
+    <t>Satkhira Troma Center</t>
+  </si>
+  <si>
+    <t>Biswas Medical</t>
+  </si>
+  <si>
+    <t>National Medical Hall</t>
+  </si>
+  <si>
+    <t>Sonali Pharmacy</t>
+  </si>
+  <si>
+    <t>Saleha Pharmacy</t>
+  </si>
+  <si>
+    <t>Popular Surgery and Nursing Cl</t>
+  </si>
+  <si>
+    <t>Raju Pharmacy</t>
+  </si>
+  <si>
+    <t>Aysha Pharmacy</t>
+  </si>
+  <si>
+    <t>Janakallyan Pharmacy</t>
+  </si>
+  <si>
+    <t>Rojina Pharmacy</t>
+  </si>
+  <si>
+    <t>Shorif Pharmacy</t>
+  </si>
+  <si>
+    <t>Maa Surgical</t>
+  </si>
+  <si>
+    <t>Das Pharmacy</t>
+  </si>
+  <si>
+    <t>Prime Drug House</t>
+  </si>
+  <si>
+    <t>Dr Belal</t>
+  </si>
+  <si>
+    <t>Antor Pharmacy</t>
+  </si>
+  <si>
+    <t>Litu Pharmacy</t>
+  </si>
+  <si>
+    <t>Happy Medical</t>
+  </si>
+  <si>
+    <t>Joarder Pharmacy</t>
+  </si>
+  <si>
+    <t>Janata Pharmacy</t>
+  </si>
+  <si>
+    <t>Janoni Pharmacy</t>
+  </si>
+  <si>
+    <t>Bikalpo Pharmacy</t>
+  </si>
+  <si>
+    <t>Dr Mikail</t>
+  </si>
+  <si>
+    <t>Paul Pharmacy</t>
+  </si>
+  <si>
+    <t>Safia Pharmacy</t>
+  </si>
+  <si>
+    <t>Leon Pharmacy</t>
+  </si>
+  <si>
+    <t>Model Pharmacy</t>
+  </si>
+  <si>
+    <t>Ferdousi Pharmacy</t>
+  </si>
+  <si>
+    <t>Kolaroa Shishu &amp; General Hospi</t>
+  </si>
+  <si>
+    <t>Khordo Polly Seba</t>
+  </si>
+  <si>
+    <t>Kamal Medical Hall</t>
+  </si>
+  <si>
+    <t>Munshi Medical Hall</t>
+  </si>
+  <si>
+    <t>Satkhira Drug House</t>
+  </si>
+  <si>
+    <t>Rogmukti &amp; Debi Pharmacy</t>
+  </si>
+  <si>
+    <t>S M Drug House</t>
+  </si>
+  <si>
+    <t>Anuj Pharmacy</t>
+  </si>
+  <si>
+    <t>China Bangla  CB  Hospital</t>
+  </si>
+  <si>
+    <t>Modina Pharmacy</t>
+  </si>
+  <si>
+    <t>Tithi Pharmacy</t>
+  </si>
+  <si>
+    <t>Sheam Pharmacy</t>
+  </si>
+  <si>
+    <t>Mukti Pharmacy</t>
+  </si>
+  <si>
+    <t>Medicine Supply Agency</t>
+  </si>
+  <si>
+    <t>Al Muaz Pharmacy</t>
+  </si>
+  <si>
+    <t>Dolon Pharmacy</t>
+  </si>
+  <si>
+    <t>Tuli Pharmacy</t>
+  </si>
+  <si>
+    <t>Biplob Pharmacy</t>
+  </si>
+  <si>
+    <t>Khan Pharmacy</t>
+  </si>
+  <si>
+    <t>Matree Medical Hall</t>
+  </si>
+  <si>
+    <t>Mim Medical Hall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96,Jail Road, Jessore                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paira Bazar, Noapara                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nowabeki Bazar Shyamnagar Satkhira                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narkelbaria Bagharpara Jessore                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bagaharpara Jessore                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makrail Bazar,Lohagora                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital road,Noapara,Jessore                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boro Gabura Bazar Shyamnagar Satkhira                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monirampur Bazar Jessore                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monirampur Jessore                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khajura Bazar Jessore                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khulna road,Satkhira                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narkel Baria Jessore                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noornagar Bazar Noornagar Shamnagar Satkhira                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koikhali,Zada Bazar,Shyamnagor                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulerhat bazar, Khajura, Bagherpara                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narikalbaria Bahgarpara Jessore                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hasanpur Bazar Keshobpur                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sakhiripota Bazar,Navaron                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benapole Port,Sharsha                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolaroa Bazar                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanaghata Satkhira                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chachra More Jessore                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faridpur Natun Bazar                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magurkhali Bazar Keshobpur                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chowgacha Jessore                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jail Road Jesore                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nolta Satlhira                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kulbaria Bazar,Kaligonj                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhuliar Bazar Satkhira                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaltetola Bazar Satkhira                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baro Bazar Kaligonj Jessore                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shymnagar Shymnagar                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C &amp; B Road Lohagara                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">College Road,Moheshpur                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benapole Bazar,Sharsha                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate Kotchandpur Jhenaidah                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laboni More Satkhira                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narikle Tola More,Satkhira                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chingra Bazar Keshobpur Jessore                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzirpur Bazar Assashuni Satkhira                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirzapur Bazar Patkelghata Satkhira                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vallukghor Keshobpur Jessore                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aladatpur, Narail                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate Narail                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shyamnagor Hospital Gate Satkhira                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nokipur Bazar Shyamnagar Satkhira                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chalteghata Bazar Shyamnagar                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirzapur Bazar, Narail                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumri Bazar Lohagara Narail                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate Bagharpara                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheikhati Bazar, Narail                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mollikpur Bazar Battala Kaligonj                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gothkhali Bazar Jhikorgacha                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gazir Bazar Kaligonj Jhenaidah                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manderbaria Bazar,Kaligonj,Jhenaidah                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prpfiter:Dr Liton Mohila College More Jhikorgacha           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamtola Thanamore Keshobpur Jessore                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chowgacha Bazar Near Jahanara Pharmacy Chowgacha            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kakbosia Bazar Assasuni                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khalashi Bazar Chowgacha                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lohagara Jaypur Road Narail                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Janani Nursing Home Shymnagar                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bakul Tola Bazar Keshobpur                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baganshara Bazar,Sharsha,Jessore                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bus Stand Navaron                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolaroa Bazar Kolaroa Satkhira                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near amanullah college,Kolaroa,Satkhira                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khordo Bazar Kolaroa Satkhira                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gothkhali Bazar Jhikorgacha Jessore                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gajir Bazar Kaligonj Kaligonj Jhenaidah                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budhata Bazar Ashashuni Satkhira                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate Satkhira Satkhira                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chowrongi More, Khulna Road, Satkhira                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baganchra Bazar Jessore                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baliadanga Bazar Kaligonj Jhenaidah                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandartola Bazar Moheshpur                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr Shuvash Ch Debnath Keshobpur Jessore                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goaldanga Bazar Ashashuni Satkhira                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rupdia Bazar Jessore                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirzapur Bazar Satkhira                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puijala Bazar Ashasuni Satkhira                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bakultola Bazar,Keshobpur                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bagharpara Jessore                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bagharpara Thana Road Jessore                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS22                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS71                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS82                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS24                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS32                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS75                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS81                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS73                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS51                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS84                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS72                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS64                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS102                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS23                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS13                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS77                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS12                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS14                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS44                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS92                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS53                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS91                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS33                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS94                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS93                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS101                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS52                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS105                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS31                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS61                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS54                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS63                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS62                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS21                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-328103     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-463904     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-464492     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465521     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465464     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465727     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465744     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465010     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466471     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467048     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467308     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-445659     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-468655     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-469543     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-470604     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-470491     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-470160     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-470372     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-470850     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-470846     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-455692     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-455809     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-471038     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-471027     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-472566     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-457907     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-451312     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-451099     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-473944     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-474047     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-452203     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-459896     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-459921     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-474712     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-460781     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-476164     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-476504     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-461316     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-461334     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-461915     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-461166     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-461223     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-461819     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-454242     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-461834     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-461585     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-477460     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-462491     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-462434     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-462471     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-461796     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-462182     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-462021     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-477277     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-462036     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-463005     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-462867     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-478228     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-463006     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-462641     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-463336     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-463514     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-463044     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-463702     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-463153     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-478660     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-463114     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-464014     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-463823     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-478998     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-456289     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-479098     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-464068     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-464066     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-456347     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-464113     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-464427     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-479250     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-464683     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-479451     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-457183     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-479913     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465086     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-464646     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-464805     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465284     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465389     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465161     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465536     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465474     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465318     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465296     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465528     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465456     </t>
+  </si>
+  <si>
+    <t>04 Nov 2019</t>
+  </si>
+  <si>
+    <t>15 Sep 2020</t>
+  </si>
+  <si>
+    <t>16 Sep 2020</t>
+  </si>
+  <si>
+    <t>18 Sep 2020</t>
+  </si>
+  <si>
+    <t>19 Sep 2020</t>
+  </si>
+  <si>
+    <t>21 Sep 2020</t>
+  </si>
+  <si>
+    <t>10 Aug 2020</t>
+  </si>
+  <si>
+    <t>25 Sep 2020</t>
+  </si>
+  <si>
+    <t>26 Sep 2020</t>
+  </si>
+  <si>
+    <t>28 Sep 2020</t>
+  </si>
+  <si>
+    <t>29 Sep 2020</t>
+  </si>
+  <si>
+    <t>30 Aug 2020</t>
+  </si>
+  <si>
+    <t>30 Sep 2020</t>
+  </si>
+  <si>
+    <t>03 Oct 2020</t>
+  </si>
+  <si>
+    <t>04 Sep 2020</t>
+  </si>
+  <si>
+    <t>20 Aug 2020</t>
+  </si>
+  <si>
+    <t>05 Oct 2020</t>
+  </si>
+  <si>
+    <t>06 Oct 2020</t>
+  </si>
+  <si>
+    <t>22 Aug 2020</t>
+  </si>
+  <si>
+    <t>07 Sep 2020</t>
+  </si>
+  <si>
+    <t>08 Oct 2020</t>
+  </si>
+  <si>
+    <t>09 Sep 2020</t>
+  </si>
+  <si>
+    <t>10 Oct 2020</t>
+  </si>
+  <si>
+    <t>10 Sep 2020</t>
+  </si>
+  <si>
+    <t>11 Sep 2020</t>
+  </si>
+  <si>
+    <t>27 Aug 2020</t>
+  </si>
+  <si>
+    <t>12 Oct 2020</t>
+  </si>
+  <si>
+    <t>12 Sep 2020</t>
+  </si>
+  <si>
+    <t>13 Sep 2020</t>
+  </si>
+  <si>
+    <t>13 Oct 2020</t>
+  </si>
+  <si>
+    <t>14 Sep 2020</t>
+  </si>
+  <si>
+    <t>14 Oct 2020</t>
+  </si>
+  <si>
+    <t>15 Oct 2020</t>
+  </si>
+  <si>
+    <t>31 Aug 2020</t>
+  </si>
+  <si>
+    <t>16 Oct 2020</t>
   </si>
   <si>
     <t>02 Sep 2020</t>
   </si>
   <si>
-    <t>20 Aug 2020</t>
-  </si>
-  <si>
-    <t>08 Aug 2020</t>
-  </si>
-  <si>
-    <t>29 Sep 2020</t>
-  </si>
-  <si>
-    <t>30 Sep 2020</t>
-  </si>
-  <si>
-    <t>31 Aug 2020</t>
-  </si>
-  <si>
-    <t>01 Sep 2020</t>
-  </si>
-  <si>
-    <t>03 Sep 2020</t>
-  </si>
-  <si>
-    <t>04 Oct 2020</t>
-  </si>
-  <si>
-    <t>18 Sep 2020</t>
+    <t>17 Oct 2020</t>
+  </si>
+  <si>
+    <t>17 Sep 2020</t>
   </si>
 </sst>
 </file>
@@ -620,7 +1682,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,28 +1737,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>271</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>305</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>399</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I2">
-        <v>47</v>
+        <v>305</v>
       </c>
       <c r="J2">
-        <v>19824.04</v>
+        <v>37965.05</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -707,28 +1769,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>272</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>306</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>400</v>
       </c>
       <c r="H3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J3">
-        <v>14783.35</v>
+        <v>7225.06</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -739,28 +1801,28 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>273</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>307</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>401</v>
       </c>
       <c r="H4">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J4">
-        <v>14946.69</v>
+        <v>29785.03</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -771,28 +1833,28 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>274</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>308</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>402</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="J5">
-        <v>34656.47</v>
+        <v>10015.45</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -803,28 +1865,28 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>274</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>309</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>402</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J6">
-        <v>50217.16</v>
+        <v>5018.94</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -835,28 +1897,28 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>275</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>310</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>403</v>
       </c>
       <c r="H7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J7">
-        <v>4462.45</v>
+        <v>9232.5</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -867,28 +1929,28 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>276</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>311</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>403</v>
       </c>
       <c r="H8">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J8">
-        <v>4360.16</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -899,28 +1961,28 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>277</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>312</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>403</v>
       </c>
       <c r="H9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J9">
-        <v>4929.08</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -931,28 +1993,28 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>278</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>313</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>404</v>
       </c>
       <c r="H10">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J10">
-        <v>9977.469999999999</v>
+        <v>14756.66</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -963,28 +2025,28 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>195</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>278</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>314</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>404</v>
       </c>
       <c r="H11">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J11">
-        <v>6937.07</v>
+        <v>12174.16</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -995,28 +2057,28 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>196</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>274</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>315</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>404</v>
       </c>
       <c r="H12">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="J12">
-        <v>5092.56</v>
+        <v>8507.01</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1027,28 +2089,28 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>279</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>316</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>405</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I13">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J13">
-        <v>22108.11</v>
+        <v>19193.25</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1059,28 +2121,28 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>198</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>274</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>317</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>406</v>
       </c>
       <c r="H14">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="J14">
-        <v>10495.53</v>
+        <v>5981.62</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1091,28 +2153,2588 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15" t="s">
+        <v>280</v>
+      </c>
+      <c r="F15" t="s">
+        <v>318</v>
+      </c>
+      <c r="G15" t="s">
+        <v>407</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>23</v>
+      </c>
+      <c r="J15">
+        <v>15081.07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" t="s">
+        <v>277</v>
+      </c>
+      <c r="F16" t="s">
+        <v>319</v>
+      </c>
+      <c r="G16" t="s">
+        <v>408</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>21</v>
+      </c>
+      <c r="J16">
+        <v>15146.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E17" t="s">
+        <v>274</v>
+      </c>
+      <c r="F17" t="s">
+        <v>320</v>
+      </c>
+      <c r="G17" t="s">
+        <v>408</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>21</v>
+      </c>
+      <c r="J17">
+        <v>15062.62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" t="s">
+        <v>274</v>
+      </c>
+      <c r="F18" t="s">
+        <v>321</v>
+      </c>
+      <c r="G18" t="s">
+        <v>408</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>21</v>
+      </c>
+      <c r="J18">
+        <v>6069.21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" t="s">
+        <v>203</v>
+      </c>
+      <c r="E19" t="s">
+        <v>281</v>
+      </c>
+      <c r="F19" t="s">
+        <v>322</v>
+      </c>
+      <c r="G19" t="s">
+        <v>408</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>21</v>
+      </c>
+      <c r="J19">
+        <v>4693.52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" t="s">
+        <v>204</v>
+      </c>
+      <c r="E20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F20" t="s">
+        <v>323</v>
+      </c>
+      <c r="G20" t="s">
+        <v>409</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>20</v>
+      </c>
+      <c r="J20">
+        <v>10450.76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E21" t="s">
+        <v>282</v>
+      </c>
+      <c r="F21" t="s">
+        <v>324</v>
+      </c>
+      <c r="G21" t="s">
+        <v>409</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21">
+        <v>10073.41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" t="s">
+        <v>206</v>
+      </c>
+      <c r="E22" t="s">
+        <v>283</v>
+      </c>
+      <c r="F22" t="s">
+        <v>325</v>
+      </c>
+      <c r="G22" t="s">
+        <v>410</v>
+      </c>
+      <c r="H22">
+        <v>30</v>
+      </c>
+      <c r="I22">
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <v>8000.29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" t="s">
+        <v>207</v>
+      </c>
+      <c r="E23" t="s">
+        <v>279</v>
+      </c>
+      <c r="F23" t="s">
+        <v>326</v>
+      </c>
+      <c r="G23" t="s">
+        <v>410</v>
+      </c>
+      <c r="H23">
+        <v>30</v>
+      </c>
+      <c r="I23">
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <v>2991.74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" t="s">
+        <v>208</v>
+      </c>
+      <c r="E24" t="s">
+        <v>284</v>
+      </c>
+      <c r="F24" t="s">
+        <v>327</v>
+      </c>
+      <c r="G24" t="s">
+        <v>411</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>19</v>
+      </c>
+      <c r="J24">
+        <v>10049.97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" t="s">
+        <v>209</v>
+      </c>
+      <c r="E25" t="s">
+        <v>285</v>
+      </c>
+      <c r="F25" t="s">
+        <v>328</v>
+      </c>
+      <c r="G25" t="s">
+        <v>411</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>19</v>
+      </c>
+      <c r="J25">
+        <v>6816.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E26" t="s">
+        <v>276</v>
+      </c>
+      <c r="F26" t="s">
+        <v>329</v>
+      </c>
+      <c r="G26" t="s">
+        <v>412</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>16</v>
+      </c>
+      <c r="J26">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" t="s">
+        <v>286</v>
+      </c>
+      <c r="F27" t="s">
+        <v>330</v>
+      </c>
+      <c r="G27" t="s">
+        <v>413</v>
+      </c>
+      <c r="H27">
+        <v>30</v>
+      </c>
+      <c r="I27">
+        <v>15</v>
+      </c>
+      <c r="J27">
+        <v>5816.98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E28" t="s">
+        <v>287</v>
+      </c>
+      <c r="F28" t="s">
+        <v>331</v>
+      </c>
+      <c r="G28" t="s">
+        <v>414</v>
+      </c>
+      <c r="H28">
+        <v>45</v>
+      </c>
+      <c r="I28">
+        <v>15</v>
+      </c>
+      <c r="J28">
+        <v>446.44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>36</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" t="s">
+        <v>212</v>
+      </c>
+      <c r="E29" t="s">
+        <v>288</v>
+      </c>
+      <c r="F29" t="s">
+        <v>332</v>
+      </c>
+      <c r="G29" t="s">
+        <v>414</v>
+      </c>
+      <c r="H29">
+        <v>45</v>
+      </c>
+      <c r="I29">
+        <v>15</v>
+      </c>
+      <c r="J29">
+        <v>286.66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" t="s">
+        <v>213</v>
+      </c>
+      <c r="E30" t="s">
+        <v>289</v>
+      </c>
+      <c r="F30" t="s">
+        <v>333</v>
+      </c>
+      <c r="G30" t="s">
+        <v>415</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>14</v>
+      </c>
+      <c r="J30">
+        <v>51924.81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" t="s">
+        <v>214</v>
+      </c>
+      <c r="E31" t="s">
+        <v>290</v>
+      </c>
+      <c r="F31" t="s">
+        <v>334</v>
+      </c>
+      <c r="G31" t="s">
+        <v>416</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>13</v>
+      </c>
+      <c r="J31">
+        <v>14042.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" t="s">
+        <v>211</v>
+      </c>
+      <c r="E32" t="s">
+        <v>287</v>
+      </c>
+      <c r="F32" t="s">
+        <v>335</v>
+      </c>
+      <c r="G32" t="s">
+        <v>417</v>
+      </c>
+      <c r="H32">
+        <v>45</v>
+      </c>
+      <c r="I32">
+        <v>13</v>
+      </c>
+      <c r="J32">
+        <v>3538.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" t="s">
+        <v>215</v>
+      </c>
+      <c r="E33" t="s">
+        <v>291</v>
+      </c>
+      <c r="F33" t="s">
+        <v>336</v>
+      </c>
+      <c r="G33" t="s">
+        <v>418</v>
+      </c>
+      <c r="H33">
+        <v>30</v>
+      </c>
+      <c r="I33">
+        <v>12</v>
+      </c>
+      <c r="J33">
+        <v>14758.53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" t="s">
+        <v>216</v>
+      </c>
+      <c r="E34" t="s">
+        <v>291</v>
+      </c>
+      <c r="F34" t="s">
+        <v>337</v>
+      </c>
+      <c r="G34" t="s">
+        <v>418</v>
+      </c>
+      <c r="H34">
+        <v>30</v>
+      </c>
+      <c r="I34">
+        <v>12</v>
+      </c>
+      <c r="J34">
+        <v>12664.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" t="s">
+        <v>217</v>
+      </c>
+      <c r="E35" t="s">
+        <v>292</v>
+      </c>
+      <c r="F35" t="s">
+        <v>338</v>
+      </c>
+      <c r="G35" t="s">
+        <v>419</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>11</v>
+      </c>
+      <c r="J35">
+        <v>12037.67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" t="s">
+        <v>218</v>
+      </c>
+      <c r="E36" t="s">
+        <v>277</v>
+      </c>
+      <c r="F36" t="s">
+        <v>339</v>
+      </c>
+      <c r="G36" t="s">
+        <v>420</v>
+      </c>
+      <c r="H36">
+        <v>30</v>
+      </c>
+      <c r="I36">
+        <v>10</v>
+      </c>
+      <c r="J36">
+        <v>4953.09</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" t="s">
+        <v>219</v>
+      </c>
+      <c r="E37" t="s">
+        <v>293</v>
+      </c>
+      <c r="F37" t="s">
+        <v>340</v>
+      </c>
+      <c r="G37" t="s">
+        <v>421</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>9</v>
+      </c>
+      <c r="J37">
+        <v>12055.35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" t="s">
+        <v>220</v>
+      </c>
+      <c r="E38" t="s">
+        <v>294</v>
+      </c>
+      <c r="F38" t="s">
+        <v>341</v>
+      </c>
+      <c r="G38" t="s">
+        <v>421</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>9</v>
+      </c>
+      <c r="J38">
+        <v>12043.31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" t="s">
+        <v>221</v>
+      </c>
+      <c r="E39" t="s">
+        <v>282</v>
+      </c>
+      <c r="F39" t="s">
+        <v>342</v>
+      </c>
+      <c r="G39" t="s">
+        <v>422</v>
+      </c>
+      <c r="H39">
+        <v>30</v>
+      </c>
+      <c r="I39">
+        <v>9</v>
+      </c>
+      <c r="J39">
+        <v>12004.35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" t="s">
+        <v>222</v>
+      </c>
+      <c r="E40" t="s">
+        <v>295</v>
+      </c>
+      <c r="F40" t="s">
+        <v>343</v>
+      </c>
+      <c r="G40" t="s">
+        <v>422</v>
+      </c>
+      <c r="H40">
+        <v>30</v>
+      </c>
+      <c r="I40">
+        <v>9</v>
+      </c>
+      <c r="J40">
+        <v>6005.13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E41" t="s">
+        <v>296</v>
+      </c>
+      <c r="F41" t="s">
+        <v>344</v>
+      </c>
+      <c r="G41" t="s">
+        <v>423</v>
+      </c>
+      <c r="H41">
+        <v>30</v>
+      </c>
+      <c r="I41">
+        <v>8</v>
+      </c>
+      <c r="J41">
+        <v>17660.02</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" t="s">
+        <v>224</v>
+      </c>
+      <c r="E42" t="s">
+        <v>296</v>
+      </c>
+      <c r="F42" t="s">
+        <v>345</v>
+      </c>
+      <c r="G42" t="s">
+        <v>423</v>
+      </c>
+      <c r="H42">
+        <v>30</v>
+      </c>
+      <c r="I42">
+        <v>8</v>
+      </c>
+      <c r="J42">
+        <v>14980.53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" t="s">
+        <v>225</v>
+      </c>
+      <c r="E43" t="s">
+        <v>281</v>
+      </c>
+      <c r="F43" t="s">
+        <v>346</v>
+      </c>
+      <c r="G43" t="s">
+        <v>423</v>
+      </c>
+      <c r="H43">
+        <v>30</v>
+      </c>
+      <c r="I43">
+        <v>8</v>
+      </c>
+      <c r="J43">
+        <v>10063.37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
         <v>50</v>
       </c>
-      <c r="E15" t="s">
+      <c r="C44" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" t="s">
+        <v>226</v>
+      </c>
+      <c r="E44" t="s">
+        <v>297</v>
+      </c>
+      <c r="F44" t="s">
+        <v>347</v>
+      </c>
+      <c r="G44" t="s">
+        <v>423</v>
+      </c>
+      <c r="H44">
+        <v>30</v>
+      </c>
+      <c r="I44">
+        <v>8</v>
+      </c>
+      <c r="J44">
+        <v>9965.190000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" t="s">
+        <v>212</v>
+      </c>
+      <c r="E45" t="s">
+        <v>288</v>
+      </c>
+      <c r="F45" t="s">
+        <v>348</v>
+      </c>
+      <c r="G45" t="s">
+        <v>424</v>
+      </c>
+      <c r="H45">
+        <v>45</v>
+      </c>
+      <c r="I45">
+        <v>8</v>
+      </c>
+      <c r="J45">
+        <v>8798.57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" t="s">
+        <v>227</v>
+      </c>
+      <c r="E46" t="s">
+        <v>298</v>
+      </c>
+      <c r="F46" t="s">
+        <v>349</v>
+      </c>
+      <c r="G46" t="s">
+        <v>423</v>
+      </c>
+      <c r="H46">
+        <v>30</v>
+      </c>
+      <c r="I46">
+        <v>8</v>
+      </c>
+      <c r="J46">
+        <v>3871.09</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" t="s">
+        <v>228</v>
+      </c>
+      <c r="E47" t="s">
+        <v>281</v>
+      </c>
+      <c r="F47" t="s">
+        <v>350</v>
+      </c>
+      <c r="G47" t="s">
+        <v>423</v>
+      </c>
+      <c r="H47">
+        <v>30</v>
+      </c>
+      <c r="I47">
+        <v>8</v>
+      </c>
+      <c r="J47">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" t="s">
+        <v>229</v>
+      </c>
+      <c r="E48" t="s">
+        <v>299</v>
+      </c>
+      <c r="F48" t="s">
+        <v>351</v>
+      </c>
+      <c r="G48" t="s">
+        <v>425</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>7</v>
+      </c>
+      <c r="J48">
+        <v>15052.09</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" t="s">
+        <v>230</v>
+      </c>
+      <c r="E49" t="s">
+        <v>299</v>
+      </c>
+      <c r="F49" t="s">
+        <v>352</v>
+      </c>
+      <c r="G49" t="s">
+        <v>426</v>
+      </c>
+      <c r="H49">
+        <v>30</v>
+      </c>
+      <c r="I49">
+        <v>7</v>
+      </c>
+      <c r="J49">
+        <v>12028.39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" t="s">
+        <v>231</v>
+      </c>
+      <c r="E50" t="s">
+        <v>273</v>
+      </c>
+      <c r="F50" t="s">
+        <v>353</v>
+      </c>
+      <c r="G50" t="s">
+        <v>426</v>
+      </c>
+      <c r="H50">
+        <v>30</v>
+      </c>
+      <c r="I50">
+        <v>7</v>
+      </c>
+      <c r="J50">
+        <v>11981.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
         <v>56</v>
       </c>
-      <c r="F15" t="s">
+      <c r="C51" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" t="s">
+        <v>232</v>
+      </c>
+      <c r="E51" t="s">
+        <v>280</v>
+      </c>
+      <c r="F51" t="s">
+        <v>354</v>
+      </c>
+      <c r="G51" t="s">
+        <v>426</v>
+      </c>
+      <c r="H51">
+        <v>30</v>
+      </c>
+      <c r="I51">
+        <v>7</v>
+      </c>
+      <c r="J51">
+        <v>10117.44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" t="s">
+        <v>233</v>
+      </c>
+      <c r="E52" t="s">
+        <v>280</v>
+      </c>
+      <c r="F52" t="s">
+        <v>355</v>
+      </c>
+      <c r="G52" t="s">
+        <v>426</v>
+      </c>
+      <c r="H52">
+        <v>30</v>
+      </c>
+      <c r="I52">
+        <v>7</v>
+      </c>
+      <c r="J52">
+        <v>8062.92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53" t="s">
+        <v>234</v>
+      </c>
+      <c r="E53" t="s">
+        <v>299</v>
+      </c>
+      <c r="F53" t="s">
+        <v>356</v>
+      </c>
+      <c r="G53" t="s">
+        <v>426</v>
+      </c>
+      <c r="H53">
+        <v>30</v>
+      </c>
+      <c r="I53">
+        <v>7</v>
+      </c>
+      <c r="J53">
+        <v>8037.98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" t="s">
+        <v>147</v>
+      </c>
+      <c r="D54" t="s">
+        <v>235</v>
+      </c>
+      <c r="E54" t="s">
+        <v>293</v>
+      </c>
+      <c r="F54" t="s">
+        <v>357</v>
+      </c>
+      <c r="G54" t="s">
+        <v>426</v>
+      </c>
+      <c r="H54">
+        <v>30</v>
+      </c>
+      <c r="I54">
+        <v>7</v>
+      </c>
+      <c r="J54">
+        <v>6049.62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" t="s">
+        <v>236</v>
+      </c>
+      <c r="E55" t="s">
+        <v>274</v>
+      </c>
+      <c r="F55" t="s">
+        <v>358</v>
+      </c>
+      <c r="G55" t="s">
+        <v>425</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>7</v>
+      </c>
+      <c r="J55">
+        <v>5284.33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" t="s">
+        <v>149</v>
+      </c>
+      <c r="D56" t="s">
+        <v>237</v>
+      </c>
+      <c r="E56" t="s">
+        <v>299</v>
+      </c>
+      <c r="F56" t="s">
+        <v>359</v>
+      </c>
+      <c r="G56" t="s">
+        <v>426</v>
+      </c>
+      <c r="H56">
+        <v>30</v>
+      </c>
+      <c r="I56">
+        <v>7</v>
+      </c>
+      <c r="J56">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" t="s">
+        <v>150</v>
+      </c>
+      <c r="D57" t="s">
+        <v>238</v>
+      </c>
+      <c r="E57" t="s">
+        <v>292</v>
+      </c>
+      <c r="F57" t="s">
+        <v>360</v>
+      </c>
+      <c r="G57" t="s">
+        <v>427</v>
+      </c>
+      <c r="H57">
+        <v>30</v>
+      </c>
+      <c r="I57">
+        <v>6</v>
+      </c>
+      <c r="J57">
+        <v>12129.87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" t="s">
+        <v>239</v>
+      </c>
+      <c r="E58" t="s">
+        <v>300</v>
+      </c>
+      <c r="F58" t="s">
+        <v>361</v>
+      </c>
+      <c r="G58" t="s">
+        <v>427</v>
+      </c>
+      <c r="H58">
+        <v>30</v>
+      </c>
+      <c r="I58">
+        <v>6</v>
+      </c>
+      <c r="J58">
+        <v>7006.13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" t="s">
+        <v>152</v>
+      </c>
+      <c r="D59" t="s">
+        <v>240</v>
+      </c>
+      <c r="E59" t="s">
+        <v>292</v>
+      </c>
+      <c r="F59" t="s">
+        <v>362</v>
+      </c>
+      <c r="G59" t="s">
+        <v>428</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>6</v>
+      </c>
+      <c r="J59">
+        <v>5005.06</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" t="s">
+        <v>153</v>
+      </c>
+      <c r="D60" t="s">
+        <v>241</v>
+      </c>
+      <c r="E60" t="s">
+        <v>292</v>
+      </c>
+      <c r="F60" t="s">
+        <v>363</v>
+      </c>
+      <c r="G60" t="s">
+        <v>427</v>
+      </c>
+      <c r="H60">
+        <v>30</v>
+      </c>
+      <c r="I60">
+        <v>6</v>
+      </c>
+      <c r="J60">
+        <v>4309.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" t="s">
+        <v>242</v>
+      </c>
+      <c r="E61" t="s">
+        <v>300</v>
+      </c>
+      <c r="F61" t="s">
+        <v>364</v>
+      </c>
+      <c r="G61" t="s">
+        <v>427</v>
+      </c>
+      <c r="H61">
+        <v>30</v>
+      </c>
+      <c r="I61">
+        <v>6</v>
+      </c>
+      <c r="J61">
+        <v>3134.29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" t="s">
+        <v>155</v>
+      </c>
+      <c r="D62" t="s">
+        <v>243</v>
+      </c>
+      <c r="E62" t="s">
+        <v>281</v>
+      </c>
+      <c r="F62" t="s">
+        <v>365</v>
+      </c>
+      <c r="G62" t="s">
+        <v>429</v>
+      </c>
+      <c r="H62">
+        <v>30</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
+      <c r="J62">
+        <v>13281.56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" t="s">
+        <v>156</v>
+      </c>
+      <c r="D63" t="s">
+        <v>244</v>
+      </c>
+      <c r="E63" t="s">
+        <v>287</v>
+      </c>
+      <c r="F63" t="s">
+        <v>366</v>
+      </c>
+      <c r="G63" t="s">
+        <v>429</v>
+      </c>
+      <c r="H63">
+        <v>30</v>
+      </c>
+      <c r="I63">
+        <v>5</v>
+      </c>
+      <c r="J63">
+        <v>12408.19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64" t="s">
+        <v>245</v>
+      </c>
+      <c r="E64" t="s">
+        <v>301</v>
+      </c>
+      <c r="F64" t="s">
+        <v>367</v>
+      </c>
+      <c r="G64" t="s">
+        <v>429</v>
+      </c>
+      <c r="H64">
+        <v>30</v>
+      </c>
+      <c r="I64">
+        <v>5</v>
+      </c>
+      <c r="J64">
+        <v>7679.29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" t="s">
+        <v>158</v>
+      </c>
+      <c r="D65" t="s">
+        <v>246</v>
+      </c>
+      <c r="E65" t="s">
+        <v>287</v>
+      </c>
+      <c r="F65" t="s">
+        <v>368</v>
+      </c>
+      <c r="G65" t="s">
+        <v>429</v>
+      </c>
+      <c r="H65">
+        <v>30</v>
+      </c>
+      <c r="I65">
+        <v>5</v>
+      </c>
+      <c r="J65">
+        <v>5380.45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" t="s">
+        <v>159</v>
+      </c>
+      <c r="D66" t="s">
+        <v>247</v>
+      </c>
+      <c r="E66" t="s">
+        <v>293</v>
+      </c>
+      <c r="F66" t="s">
+        <v>369</v>
+      </c>
+      <c r="G66" t="s">
+        <v>429</v>
+      </c>
+      <c r="H66">
+        <v>30</v>
+      </c>
+      <c r="I66">
+        <v>5</v>
+      </c>
+      <c r="J66">
+        <v>5039.94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
         <v>72</v>
       </c>
-      <c r="G15" t="s">
+      <c r="C67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D67" t="s">
+        <v>248</v>
+      </c>
+      <c r="E67" t="s">
+        <v>277</v>
+      </c>
+      <c r="F67" t="s">
+        <v>370</v>
+      </c>
+      <c r="G67" t="s">
+        <v>430</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+      <c r="J67">
+        <v>5017.21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" t="s">
+        <v>249</v>
+      </c>
+      <c r="E68" t="s">
+        <v>281</v>
+      </c>
+      <c r="F68" t="s">
+        <v>371</v>
+      </c>
+      <c r="G68" t="s">
+        <v>429</v>
+      </c>
+      <c r="H68">
+        <v>30</v>
+      </c>
+      <c r="I68">
+        <v>5</v>
+      </c>
+      <c r="J68">
+        <v>5008.46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" t="s">
+        <v>162</v>
+      </c>
+      <c r="D69" t="s">
+        <v>250</v>
+      </c>
+      <c r="E69" t="s">
+        <v>302</v>
+      </c>
+      <c r="F69" t="s">
+        <v>372</v>
+      </c>
+      <c r="G69" t="s">
+        <v>400</v>
+      </c>
+      <c r="H69">
+        <v>30</v>
+      </c>
+      <c r="I69">
+        <v>4</v>
+      </c>
+      <c r="J69">
+        <v>40283.39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" t="s">
+        <v>163</v>
+      </c>
+      <c r="D70" t="s">
+        <v>251</v>
+      </c>
+      <c r="E70" t="s">
+        <v>303</v>
+      </c>
+      <c r="F70" t="s">
+        <v>373</v>
+      </c>
+      <c r="G70" t="s">
+        <v>400</v>
+      </c>
+      <c r="H70">
+        <v>30</v>
+      </c>
+      <c r="I70">
+        <v>4</v>
+      </c>
+      <c r="J70">
+        <v>20165.37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" t="s">
+        <v>164</v>
+      </c>
+      <c r="D71" t="s">
+        <v>252</v>
+      </c>
+      <c r="E71" t="s">
+        <v>283</v>
+      </c>
+      <c r="F71" t="s">
+        <v>374</v>
+      </c>
+      <c r="G71" t="s">
+        <v>431</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>4</v>
+      </c>
+      <c r="J71">
+        <v>20137.08</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" t="s">
+        <v>124</v>
+      </c>
+      <c r="D72" t="s">
+        <v>211</v>
+      </c>
+      <c r="E72" t="s">
+        <v>287</v>
+      </c>
+      <c r="F72" t="s">
+        <v>375</v>
+      </c>
+      <c r="G72" t="s">
+        <v>432</v>
+      </c>
+      <c r="H72">
+        <v>45</v>
+      </c>
+      <c r="I72">
+        <v>4</v>
+      </c>
+      <c r="J72">
+        <v>16977.83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" t="s">
+        <v>165</v>
+      </c>
+      <c r="D73" t="s">
+        <v>253</v>
+      </c>
+      <c r="E73" t="s">
+        <v>283</v>
+      </c>
+      <c r="F73" t="s">
+        <v>376</v>
+      </c>
+      <c r="G73" t="s">
+        <v>431</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>4</v>
+      </c>
+      <c r="J73">
+        <v>14602.34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" t="s">
+        <v>166</v>
+      </c>
+      <c r="D74" t="s">
+        <v>254</v>
+      </c>
+      <c r="E74" t="s">
+        <v>283</v>
+      </c>
+      <c r="F74" t="s">
+        <v>377</v>
+      </c>
+      <c r="G74" t="s">
+        <v>400</v>
+      </c>
+      <c r="H74">
+        <v>30</v>
+      </c>
+      <c r="I74">
+        <v>4</v>
+      </c>
+      <c r="J74">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" t="s">
+        <v>167</v>
+      </c>
+      <c r="D75" t="s">
+        <v>255</v>
+      </c>
+      <c r="E75" t="s">
+        <v>300</v>
+      </c>
+      <c r="F75" t="s">
+        <v>378</v>
+      </c>
+      <c r="G75" t="s">
+        <v>400</v>
+      </c>
+      <c r="H75">
+        <v>30</v>
+      </c>
+      <c r="I75">
+        <v>4</v>
+      </c>
+      <c r="J75">
+        <v>6644.84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" t="s">
+        <v>124</v>
+      </c>
+      <c r="D76" t="s">
+        <v>211</v>
+      </c>
+      <c r="E76" t="s">
+        <v>287</v>
+      </c>
+      <c r="F76" t="s">
+        <v>379</v>
+      </c>
+      <c r="G76" t="s">
+        <v>432</v>
+      </c>
+      <c r="H76">
+        <v>45</v>
+      </c>
+      <c r="I76">
+        <v>4</v>
+      </c>
+      <c r="J76">
+        <v>5625</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" t="s">
+        <v>168</v>
+      </c>
+      <c r="D77" t="s">
+        <v>256</v>
+      </c>
+      <c r="E77" t="s">
+        <v>292</v>
+      </c>
+      <c r="F77" t="s">
+        <v>380</v>
+      </c>
+      <c r="G77" t="s">
+        <v>400</v>
+      </c>
+      <c r="H77">
+        <v>30</v>
+      </c>
+      <c r="I77">
+        <v>4</v>
+      </c>
+      <c r="J77">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" t="s">
+        <v>169</v>
+      </c>
+      <c r="D78" t="s">
+        <v>223</v>
+      </c>
+      <c r="E78" t="s">
+        <v>296</v>
+      </c>
+      <c r="F78" t="s">
+        <v>381</v>
+      </c>
+      <c r="G78" t="s">
+        <v>401</v>
+      </c>
+      <c r="H78">
+        <v>30</v>
+      </c>
+      <c r="I78">
+        <v>3</v>
+      </c>
+      <c r="J78">
+        <v>40081.61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
         <v>82</v>
       </c>
-      <c r="H15">
-        <v>30</v>
-      </c>
-      <c r="I15">
+      <c r="C79" t="s">
+        <v>170</v>
+      </c>
+      <c r="D79" t="s">
+        <v>257</v>
+      </c>
+      <c r="E79" t="s">
+        <v>297</v>
+      </c>
+      <c r="F79" t="s">
+        <v>382</v>
+      </c>
+      <c r="G79" t="s">
+        <v>433</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>3</v>
+      </c>
+      <c r="J79">
+        <v>15013.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" t="s">
+        <v>171</v>
+      </c>
+      <c r="D80" t="s">
+        <v>258</v>
+      </c>
+      <c r="E80" t="s">
+        <v>279</v>
+      </c>
+      <c r="F80" t="s">
+        <v>383</v>
+      </c>
+      <c r="G80" t="s">
+        <v>401</v>
+      </c>
+      <c r="H80">
+        <v>30</v>
+      </c>
+      <c r="I80">
+        <v>3</v>
+      </c>
+      <c r="J80">
+        <v>10114.52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" t="s">
+        <v>172</v>
+      </c>
+      <c r="D81" t="s">
+        <v>196</v>
+      </c>
+      <c r="E81" t="s">
+        <v>274</v>
+      </c>
+      <c r="F81" t="s">
+        <v>384</v>
+      </c>
+      <c r="G81" t="s">
+        <v>433</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>3</v>
+      </c>
+      <c r="J81">
+        <v>9485.18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" t="s">
+        <v>173</v>
+      </c>
+      <c r="D82" t="s">
+        <v>259</v>
+      </c>
+      <c r="E82" t="s">
+        <v>279</v>
+      </c>
+      <c r="F82" t="s">
+        <v>385</v>
+      </c>
+      <c r="G82" t="s">
+        <v>434</v>
+      </c>
+      <c r="H82">
+        <v>45</v>
+      </c>
+      <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82">
+        <v>56028.8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" t="s">
+        <v>105</v>
+      </c>
+      <c r="D83" t="s">
+        <v>193</v>
+      </c>
+      <c r="E83" t="s">
+        <v>277</v>
+      </c>
+      <c r="F83" t="s">
+        <v>386</v>
+      </c>
+      <c r="G83" t="s">
+        <v>435</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>2</v>
+      </c>
+      <c r="J83">
+        <v>20016.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" t="s">
+        <v>174</v>
+      </c>
+      <c r="D84" t="s">
+        <v>260</v>
+      </c>
+      <c r="E84" t="s">
+        <v>302</v>
+      </c>
+      <c r="F84" t="s">
+        <v>387</v>
+      </c>
+      <c r="G84" t="s">
+        <v>436</v>
+      </c>
+      <c r="H84">
+        <v>30</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <v>20005.4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" t="s">
+        <v>175</v>
+      </c>
+      <c r="D85" t="s">
+        <v>261</v>
+      </c>
+      <c r="E85" t="s">
+        <v>290</v>
+      </c>
+      <c r="F85" t="s">
+        <v>388</v>
+      </c>
+      <c r="G85" t="s">
+        <v>436</v>
+      </c>
+      <c r="H85">
+        <v>30</v>
+      </c>
+      <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85">
+        <v>8644.549999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" t="s">
+        <v>176</v>
+      </c>
+      <c r="D86" t="s">
+        <v>262</v>
+      </c>
+      <c r="E86" t="s">
+        <v>294</v>
+      </c>
+      <c r="F86" t="s">
+        <v>389</v>
+      </c>
+      <c r="G86" t="s">
+        <v>436</v>
+      </c>
+      <c r="H86">
+        <v>30</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86">
+        <v>7803.6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" t="s">
+        <v>177</v>
+      </c>
+      <c r="D87" t="s">
+        <v>263</v>
+      </c>
+      <c r="E87" t="s">
+        <v>286</v>
+      </c>
+      <c r="F87" t="s">
+        <v>390</v>
+      </c>
+      <c r="G87" t="s">
+        <v>402</v>
+      </c>
+      <c r="H87">
+        <v>30</v>
+      </c>
+      <c r="I87">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>9952.700000000001</v>
+      <c r="J87">
+        <v>30269.39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" t="s">
+        <v>178</v>
+      </c>
+      <c r="D88" t="s">
+        <v>264</v>
+      </c>
+      <c r="E88" t="s">
+        <v>301</v>
+      </c>
+      <c r="F88" t="s">
+        <v>391</v>
+      </c>
+      <c r="G88" t="s">
+        <v>402</v>
+      </c>
+      <c r="H88">
+        <v>30</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>19341.63</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" t="s">
+        <v>179</v>
+      </c>
+      <c r="D89" t="s">
+        <v>265</v>
+      </c>
+      <c r="E89" t="s">
+        <v>304</v>
+      </c>
+      <c r="F89" t="s">
+        <v>392</v>
+      </c>
+      <c r="G89" t="s">
+        <v>402</v>
+      </c>
+      <c r="H89">
+        <v>30</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>13285.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" t="s">
+        <v>180</v>
+      </c>
+      <c r="D90" t="s">
+        <v>266</v>
+      </c>
+      <c r="E90" t="s">
+        <v>298</v>
+      </c>
+      <c r="F90" t="s">
+        <v>393</v>
+      </c>
+      <c r="G90" t="s">
+        <v>402</v>
+      </c>
+      <c r="H90">
+        <v>30</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>10233.97</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" t="s">
+        <v>181</v>
+      </c>
+      <c r="D91" t="s">
+        <v>227</v>
+      </c>
+      <c r="E91" t="s">
+        <v>298</v>
+      </c>
+      <c r="F91" t="s">
+        <v>394</v>
+      </c>
+      <c r="G91" t="s">
+        <v>402</v>
+      </c>
+      <c r="H91">
+        <v>30</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>10057.8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" t="s">
+        <v>182</v>
+      </c>
+      <c r="D92" t="s">
+        <v>267</v>
+      </c>
+      <c r="E92" t="s">
+        <v>301</v>
+      </c>
+      <c r="F92" t="s">
+        <v>395</v>
+      </c>
+      <c r="G92" t="s">
+        <v>402</v>
+      </c>
+      <c r="H92">
+        <v>30</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>9924.120000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" t="s">
+        <v>183</v>
+      </c>
+      <c r="D93" t="s">
+        <v>268</v>
+      </c>
+      <c r="E93" t="s">
+        <v>281</v>
+      </c>
+      <c r="F93" t="s">
+        <v>396</v>
+      </c>
+      <c r="G93" t="s">
+        <v>402</v>
+      </c>
+      <c r="H93">
+        <v>30</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>8046.63</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94" t="s">
+        <v>184</v>
+      </c>
+      <c r="D94" t="s">
+        <v>269</v>
+      </c>
+      <c r="E94" t="s">
+        <v>274</v>
+      </c>
+      <c r="F94" t="s">
+        <v>397</v>
+      </c>
+      <c r="G94" t="s">
+        <v>402</v>
+      </c>
+      <c r="H94">
+        <v>30</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>5181.96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95" t="s">
+        <v>185</v>
+      </c>
+      <c r="D95" t="s">
+        <v>270</v>
+      </c>
+      <c r="E95" t="s">
+        <v>274</v>
+      </c>
+      <c r="F95" t="s">
+        <v>398</v>
+      </c>
+      <c r="G95" t="s">
+        <v>402</v>
+      </c>
+      <c r="H95">
+        <v>30</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>4961.99</v>
       </c>
     </row>
   </sheetData>

--- a/Data/AgingMatured.xlsx
+++ b/Data/AgingMatured.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="276">
   <si>
     <t>Cust ID</t>
   </si>
@@ -43,472 +43,805 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>12010508678</t>
-  </si>
-  <si>
-    <t>12010506029</t>
-  </si>
-  <si>
-    <t>90000017057</t>
-  </si>
-  <si>
-    <t>12010508403</t>
-  </si>
-  <si>
-    <t>12010503383</t>
-  </si>
-  <si>
-    <t>90000008868</t>
-  </si>
-  <si>
-    <t>12010500942</t>
-  </si>
-  <si>
-    <t>12010126256</t>
-  </si>
-  <si>
-    <t>90000024109</t>
-  </si>
-  <si>
-    <t>12010111044</t>
-  </si>
-  <si>
-    <t>12010508887</t>
-  </si>
-  <si>
-    <t>90000037169</t>
-  </si>
-  <si>
-    <t>90000001383</t>
-  </si>
-  <si>
-    <t>12010121170</t>
-  </si>
-  <si>
-    <t>90000039670</t>
-  </si>
-  <si>
-    <t>12010505858</t>
-  </si>
-  <si>
-    <t>12010508783</t>
-  </si>
-  <si>
-    <t>12010503990</t>
-  </si>
-  <si>
-    <t>12010509482</t>
-  </si>
-  <si>
-    <t>12010109276</t>
-  </si>
-  <si>
-    <t>12010509264</t>
-  </si>
-  <si>
-    <t>12010140200</t>
-  </si>
-  <si>
-    <t>12010126167</t>
-  </si>
-  <si>
-    <t>12010139317</t>
-  </si>
-  <si>
-    <t>12010139167</t>
-  </si>
-  <si>
-    <t>12010139012</t>
-  </si>
-  <si>
-    <t>12010121055</t>
-  </si>
-  <si>
-    <t>Emon Drag House</t>
-  </si>
-  <si>
-    <t>Dream Pharma</t>
-  </si>
-  <si>
-    <t>Dhaka Central Diagnostic &amp; Ima</t>
-  </si>
-  <si>
-    <t>Dhaka Central Int. Medical Col</t>
-  </si>
-  <si>
-    <t>Badas Pharmacy  NHN   DAB</t>
-  </si>
-  <si>
-    <t>Health Labs Pharmacy</t>
-  </si>
-  <si>
-    <t>Marie Stopes Clinic</t>
-  </si>
-  <si>
-    <t>Marks ENT Hospital  Institutio</t>
-  </si>
-  <si>
-    <t>Nurunnahar Pharmacy</t>
-  </si>
-  <si>
-    <t>R  K  Medical Hall</t>
-  </si>
-  <si>
-    <t>Shah Ali Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr.Rafiqul Islam  AIC </t>
-  </si>
-  <si>
-    <t>M  Hassan Pharmacy</t>
-  </si>
-  <si>
-    <t>Bangladesh Eye Hospital Mirpur</t>
-  </si>
-  <si>
-    <t>OSB Chasma Ghar</t>
-  </si>
-  <si>
-    <t>Asad Medical Hall</t>
-  </si>
-  <si>
-    <t>Tahsan Drug House</t>
-  </si>
-  <si>
-    <t>Khondaker Pharma</t>
-  </si>
-  <si>
-    <t>OSB Hospital  Optics And Media</t>
-  </si>
-  <si>
-    <t>Ajim Pharmacy</t>
-  </si>
-  <si>
-    <t>Taj Medicine Corner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al Helal Specialised Hospital </t>
-  </si>
-  <si>
-    <t>Suvescha  Medical Hall</t>
-  </si>
-  <si>
-    <t>Janaprio Pharmacy</t>
-  </si>
-  <si>
-    <t>Samadhan Medicine Corner</t>
-  </si>
-  <si>
-    <t>Binimoy Drug Store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C 11 12 shah Ali girls College,Mirpur 1,Dhaka               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mirpur 10 A,Beside of Diginova,Dhaka                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">38/1, Ring Road,Shaymoli                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 1,Ring Road,Shymoly,Dhaka                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Road,Mirpur  10,Dhaka                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">East,Shewrapara,Near Sohel Pharmacy                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mirpur 10,Opposite Indoor Stadium,Mirpur,Dhaka              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mirpur 14,Dhaka                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">House-3, Road No-2,Block-E, Kalsi Road, Mirpur-11, Dhaka    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satter Market,Dhaka Cantonment,Dhaka                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bouniabad,Mirpur   11                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shah Ali Bag Mirpur 1,Dhaka                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDCL, Mirpur                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">83, Pal Para Golar Tak,Mirpur   1,Dhaka                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">66 Sumi Tower Zoo Road Mirpur 2 Dhaka                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mirpur  2,Dhaka                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79 B, Sarker Bari, Main Road,Mirpur DOHS                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">House  53, Road  11,Kallayanpur,Dhaka                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rain Khola Moszid,Section   02, Block   A,Mirpur  02        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 2, Mirpur  2,Dhaka                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puran Kachukhat Near Desh Pharm,Dhaka Cantonment,Dhaka      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mirpur 12,Block- D,Muslim Bazar,Mirpur 12,Dhaka             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">150, Senpara, Rokeya Saroni,Kazipara,Dhaka                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">59 D, Darussalam Apartment,Complex, Mirpur                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 L, 1, Tolar Bag,Water Tank Gate,,Mirpur 01.Dhaka         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 D, 1 1 1 Water Tank Road,Mirpur 2,Dhaka                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">241, Shewrapara,Washa Road,Dhaka                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM21                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM61                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND12                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM44                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM14                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM44                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM63                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM43                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM64                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM31                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">INST                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM22                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM43                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM52                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM51                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM32                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM53                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM13                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-350114     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-527072     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-564683     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-565405     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-568933     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-589486     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-579025     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-669401     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-642893     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-611934     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-583159     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-644928     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-658462     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-658961     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-677980     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-678190     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-679076     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-663520     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-644970     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-646039     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-666649     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-667265     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-668077     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-649433     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-668171     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-687005     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-669269     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-649897     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-669294     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-669298     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-669830     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV115-669429     </t>
-  </si>
-  <si>
-    <t>18 Feb 2019</t>
-  </si>
-  <si>
-    <t>16 Jan 2020</t>
-  </si>
-  <si>
-    <t>21 Mar 2020</t>
-  </si>
-  <si>
-    <t>22 Mar 2020</t>
-  </si>
-  <si>
-    <t>28 Mar 2020</t>
-  </si>
-  <si>
-    <t>09 May 2020</t>
-  </si>
-  <si>
-    <t>18 Apr 2020</t>
+    <t>90000028229</t>
+  </si>
+  <si>
+    <t>90000014597</t>
+  </si>
+  <si>
+    <t>44019001544</t>
+  </si>
+  <si>
+    <t>90000029246</t>
+  </si>
+  <si>
+    <t>44031106594</t>
+  </si>
+  <si>
+    <t>4406114678</t>
+  </si>
+  <si>
+    <t>44019008675</t>
+  </si>
+  <si>
+    <t>44037801992</t>
+  </si>
+  <si>
+    <t>44037801368</t>
+  </si>
+  <si>
+    <t>90000003945</t>
+  </si>
+  <si>
+    <t>44031000237</t>
+  </si>
+  <si>
+    <t>44019001016</t>
+  </si>
+  <si>
+    <t>44019003221</t>
+  </si>
+  <si>
+    <t>44019003034</t>
+  </si>
+  <si>
+    <t>44031106947</t>
+  </si>
+  <si>
+    <t>44031000626</t>
+  </si>
+  <si>
+    <t>44019003399</t>
+  </si>
+  <si>
+    <t>90000018632</t>
+  </si>
+  <si>
+    <t>44019002997</t>
+  </si>
+  <si>
+    <t>44019001746</t>
+  </si>
+  <si>
+    <t>44019000528</t>
+  </si>
+  <si>
+    <t>44019004001</t>
+  </si>
+  <si>
+    <t>44019003560</t>
+  </si>
+  <si>
+    <t>90000025671</t>
+  </si>
+  <si>
+    <t>44037800819</t>
+  </si>
+  <si>
+    <t>4401900206</t>
+  </si>
+  <si>
+    <t>44031101821</t>
+  </si>
+  <si>
+    <t>44019000437</t>
+  </si>
+  <si>
+    <t>44037801134</t>
+  </si>
+  <si>
+    <t>44019000314</t>
+  </si>
+  <si>
+    <t>44031000004</t>
+  </si>
+  <si>
+    <t>4406114691</t>
+  </si>
+  <si>
+    <t>44031002813</t>
+  </si>
+  <si>
+    <t>90000003295</t>
+  </si>
+  <si>
+    <t>90000041675</t>
+  </si>
+  <si>
+    <t>44031100420</t>
+  </si>
+  <si>
+    <t>44037799564</t>
+  </si>
+  <si>
+    <t>44019004795</t>
+  </si>
+  <si>
+    <t>44031107361</t>
+  </si>
+  <si>
+    <t>44019000739</t>
+  </si>
+  <si>
+    <t>44037801057</t>
+  </si>
+  <si>
+    <t>44037801484</t>
+  </si>
+  <si>
+    <t>44019002282</t>
+  </si>
+  <si>
+    <t>44019001195</t>
+  </si>
+  <si>
+    <t>44019001905</t>
+  </si>
+  <si>
+    <t>44019004679</t>
+  </si>
+  <si>
+    <t>44019004816</t>
+  </si>
+  <si>
+    <t>90000019818</t>
+  </si>
+  <si>
+    <t>4406114661</t>
+  </si>
+  <si>
+    <t>44031100874</t>
+  </si>
+  <si>
+    <t>44019002054</t>
+  </si>
+  <si>
+    <t>4401900159</t>
+  </si>
+  <si>
+    <t>44019001332</t>
+  </si>
+  <si>
+    <t>4406114599</t>
+  </si>
+  <si>
+    <t>4406114540</t>
+  </si>
+  <si>
+    <t>Bondhon Hospital</t>
+  </si>
+  <si>
+    <t>Litu Pharmacy</t>
+  </si>
+  <si>
+    <t>Lily Pharmacy</t>
+  </si>
+  <si>
+    <t>Al Nur Hospital</t>
+  </si>
+  <si>
+    <t>Gazi Pharmacy</t>
+  </si>
+  <si>
+    <t>Popular Pharmacy</t>
+  </si>
+  <si>
+    <t>Ibn Sina Diagnostic Center</t>
+  </si>
+  <si>
+    <t>Sher E Bangla Clinic</t>
+  </si>
+  <si>
+    <t>Ram Krishna pharmacy</t>
+  </si>
+  <si>
+    <t>Dalia Clinic</t>
+  </si>
+  <si>
+    <t>National Medical Hall</t>
+  </si>
+  <si>
+    <t>Raju Pharmacy</t>
+  </si>
+  <si>
+    <t>Shorif Pharmacy</t>
+  </si>
+  <si>
+    <t>Das Pharmacy</t>
+  </si>
+  <si>
+    <t>Rojina Pharmacy</t>
+  </si>
+  <si>
+    <t>Janoni Pharmacy</t>
+  </si>
+  <si>
+    <t>Bikalpo Pharmacy</t>
+  </si>
+  <si>
+    <t>China Bangla  CB  Hospital</t>
+  </si>
+  <si>
+    <t>Al Muaz Pharmacy</t>
+  </si>
+  <si>
+    <t>Matree Medical Hall</t>
+  </si>
+  <si>
+    <t>Dr. Arobindu</t>
+  </si>
+  <si>
+    <t>Allahar Dan Clinic</t>
+  </si>
+  <si>
+    <t>Unique Hospital</t>
+  </si>
+  <si>
+    <t>SKH Pharmacy</t>
+  </si>
+  <si>
+    <t>Dr Volanath Paul</t>
+  </si>
+  <si>
+    <t>Majid Pharmacy</t>
+  </si>
+  <si>
+    <t>Ety Pharmacy</t>
+  </si>
+  <si>
+    <t>Kohinoor Pharmacy</t>
+  </si>
+  <si>
+    <t>Saleha Medical Hall</t>
+  </si>
+  <si>
+    <t>Medicine Corner</t>
+  </si>
+  <si>
+    <t>Satata Pharmacy</t>
+  </si>
+  <si>
+    <t>Urme Pharmacy</t>
+  </si>
+  <si>
+    <t>New Hasan Medical Hall</t>
+  </si>
+  <si>
+    <t>Niramoy Clinic &amp; Diagonostic C</t>
+  </si>
+  <si>
+    <t>Farid Medical Hall</t>
+  </si>
+  <si>
+    <t>Sufia Pharmacy</t>
+  </si>
+  <si>
+    <t>Mubin Pharmacy</t>
+  </si>
+  <si>
+    <t>Echamoti Drug House</t>
+  </si>
+  <si>
+    <t>United Medical Store</t>
+  </si>
+  <si>
+    <t>Shariear Pharmacy</t>
+  </si>
+  <si>
+    <t>Ahasan Drug House</t>
+  </si>
+  <si>
+    <t>Seba Clinic</t>
+  </si>
+  <si>
+    <t>Dr Rafiqul Islam</t>
+  </si>
+  <si>
+    <t>Asha Pharmacy</t>
+  </si>
+  <si>
+    <t>Fatama Pharmacy</t>
+  </si>
+  <si>
+    <t>Prathomic Sastho Seba Kendro</t>
+  </si>
+  <si>
+    <t>Suraksha Medical Hall</t>
+  </si>
+  <si>
+    <t>Maa Medical</t>
+  </si>
+  <si>
+    <t>Shamim Pharmacy</t>
+  </si>
+  <si>
+    <t>Anik Pharmacy</t>
+  </si>
+  <si>
+    <t>Iran Medical Hall</t>
+  </si>
+  <si>
+    <t>Dr Joydab Adhikari</t>
+  </si>
+  <si>
+    <t>Rafa Medical Hall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96,Jail Road, Jessore                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manderbaria Bazar,Kaligonj,Jhenaidah                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monirampur Jessore                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khulna road,Satkhira                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate Shymnagar                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaligonj, jhenaidah                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jail Road Jesore                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nolta Satlhira                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhuliar Bazar Satkhira                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C &amp; B Road Lohagara                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzirpur Bazar Assashuni Satkhira                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate Narail                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumri Bazar Lohagara Narail                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheikhati Bazar, Narail                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chalteghata Bazar Shyamnagar                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kakbosia Bazar Assasuni                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khalashi Bazar Chowgacha                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chowrongi More, Khulna Road, Satkhira                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rupdia Bazar Jessore                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bagharpara Jessore                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bagaharpara Jessore                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laxmipasha Lohagora Narail                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate Jessore                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makrail Bazar,Lohagora                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhatshala Parulia Satkhira                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uttar Dighi Vatpara Noapara                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vetkhali Shaymnagar Satkhira                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chutipur Bazar Jessore                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patkelghata Bazar Patkelghata Khulna MD Mehedi Hassan       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jhikorgacha Jessore                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polashpole Satkhira                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ganna Bazar Kaligonj Jhenaidah                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porar Bazar Patkelghata Satkhira                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolaroa Bazar,Satkhira                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shahid Kazol Saroni,Polashpole,Satkhira                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nowabiki Shamnagar Satkhira                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munsur Sardar Gareg Munsigonj Satkhira                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monirampur Bazar Jessore                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Town Sripur Debhata Satkhira                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purapara Chowgasa Jessore                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadakati Bazar Budhata Satkhira                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bongshipur Bazar Shayamnagar                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khorori Bazar Narail Mobile 01720929616                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachuria Bazar Digholia Road Lohagara                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sisutala Bazar Moheshpur                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arpara Bazar Chowhacha Jessore                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garochora Bazar Narail                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satkhira                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tottipur Bazar Kaligonj Kaligonj                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baganchra Sharsha Jessore                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dharmatalar More Jessore                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate Jesore                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO Doctors Clinic Hospital Road Nowapara                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurar Bazar Kaligonj Jhenaidha                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talshar Bazar Kaligonj JHD                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS22                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS91                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS73                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS51                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS84                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS92                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS14                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS44                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS53                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS33                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS52                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS31                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS54                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS12                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS21                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS24                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS32                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS43                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS75                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS81                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS61                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS104                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS41                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS102                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS82                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS94                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS34                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS63                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS13                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-328103     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-463006     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467048     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-445659     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-469487     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-469850     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-451099     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-473944     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-459896     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-476164     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-461819     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-462491     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-462021     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-462036     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-461796     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-463044     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-463702     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-457183     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465161     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465528     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465464     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480792     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-480581     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465727     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466223     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465748     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-465913     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466495     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466623     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466536     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466430     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466467     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466555     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466588     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-459173     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467140     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466928     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466471     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466728     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467076     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467322     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466792     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467020     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467307     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467103     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467114     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-466705     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-459656     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467733     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467558     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467487     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467442     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467666     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467734     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV440-467556     </t>
+  </si>
+  <si>
+    <t>04 Nov 2019</t>
+  </si>
+  <si>
+    <t>13 Sep 2020</t>
+  </si>
+  <si>
+    <t>21 Sep 2020</t>
+  </si>
+  <si>
+    <t>10 Aug 2020</t>
+  </si>
+  <si>
+    <t>26 Sep 2020</t>
+  </si>
+  <si>
+    <t>27 Sep 2020</t>
+  </si>
+  <si>
+    <t>20 Aug 2020</t>
+  </si>
+  <si>
+    <t>05 Oct 2020</t>
+  </si>
+  <si>
+    <t>07 Sep 2020</t>
+  </si>
+  <si>
+    <t>10 Oct 2020</t>
+  </si>
+  <si>
+    <t>11 Sep 2020</t>
+  </si>
+  <si>
+    <t>12 Sep 2020</t>
+  </si>
+  <si>
+    <t>14 Sep 2020</t>
+  </si>
+  <si>
+    <t>02 Sep 2020</t>
   </si>
   <si>
     <t>18 Sep 2020</t>
   </si>
   <si>
-    <t>06 Aug 2020</t>
-  </si>
-  <si>
-    <t>16 Jun 2020</t>
-  </si>
-  <si>
-    <t>27 Apr 2020</t>
-  </si>
-  <si>
-    <t>10 Aug 2020</t>
-  </si>
-  <si>
-    <t>31 Aug 2020</t>
-  </si>
-  <si>
-    <t>01 Sep 2020</t>
-  </si>
-  <si>
-    <t>02 Oct 2020</t>
-  </si>
-  <si>
-    <t>04 Oct 2020</t>
-  </si>
-  <si>
-    <t>08 Sep 2020</t>
-  </si>
-  <si>
-    <t>12 Aug 2020</t>
-  </si>
-  <si>
-    <t>13 Sep 2020</t>
-  </si>
-  <si>
-    <t>14 Sep 2020</t>
-  </si>
-  <si>
-    <t>15 Sep 2020</t>
-  </si>
-  <si>
-    <t>17 Aug 2020</t>
-  </si>
-  <si>
-    <t>16 Sep 2020</t>
-  </si>
-  <si>
-    <t>16 Oct 2020</t>
-  </si>
-  <si>
-    <t>17 Sep 2020</t>
-  </si>
-  <si>
-    <t>18 Aug 2020</t>
+    <t>19 Oct 2020</t>
+  </si>
+  <si>
+    <t>19 Sep 2020</t>
+  </si>
+  <si>
+    <t>20 Sep 2020</t>
+  </si>
+  <si>
+    <t>06 Sep 2020</t>
+  </si>
+  <si>
+    <t>22 Sep 2020</t>
   </si>
 </sst>
 </file>
@@ -866,7 +1199,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -921,28 +1254,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>256</v>
       </c>
       <c r="H2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>579</v>
+        <v>354</v>
       </c>
       <c r="J2">
-        <v>20124.56</v>
+        <v>37965.05</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -953,28 +1286,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="G3" t="s">
-        <v>140</v>
+        <v>257</v>
       </c>
       <c r="H3">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>232</v>
+        <v>40</v>
       </c>
       <c r="J3">
-        <v>30531</v>
+        <v>4309.3</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -985,28 +1318,28 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>203</v>
       </c>
       <c r="G4" t="s">
-        <v>141</v>
+        <v>258</v>
       </c>
       <c r="H4">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="J4">
-        <v>1548.97</v>
+        <v>12174.16</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1017,28 +1350,28 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="F5" t="s">
-        <v>110</v>
+        <v>204</v>
       </c>
       <c r="G5" t="s">
-        <v>142</v>
+        <v>259</v>
       </c>
       <c r="H5">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="I5">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="J5">
-        <v>7068</v>
+        <v>19193.25</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1046,31 +1379,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>205</v>
       </c>
       <c r="G6" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="H6">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="J6">
-        <v>3991.58</v>
+        <v>12015.95</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1078,31 +1411,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="G7" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="H7">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="J7">
-        <v>11127.07</v>
+        <v>6099.06</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1110,31 +1443,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>207</v>
       </c>
       <c r="G8" t="s">
-        <v>145</v>
+        <v>262</v>
       </c>
       <c r="H8">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="I8">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J8">
-        <v>1854.52</v>
+        <v>286.66</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1142,31 +1475,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>208</v>
       </c>
       <c r="G9" t="s">
-        <v>146</v>
+        <v>263</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J9">
-        <v>10010</v>
+        <v>51924.81</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1174,31 +1507,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>209</v>
       </c>
       <c r="G10" t="s">
-        <v>147</v>
+        <v>264</v>
       </c>
       <c r="H10">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I10">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="J10">
-        <v>854</v>
+        <v>9758.530000000001</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1206,31 +1539,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>210</v>
       </c>
       <c r="G11" t="s">
-        <v>148</v>
+        <v>265</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J11">
-        <v>83834.25999999999</v>
+        <v>12055.35</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1238,31 +1571,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G12" t="s">
+        <v>266</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
+      </c>
+      <c r="I12">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" t="s">
-        <v>117</v>
-      </c>
-      <c r="G12" t="s">
-        <v>149</v>
-      </c>
-      <c r="H12">
-        <v>150</v>
-      </c>
-      <c r="I12">
-        <v>25</v>
-      </c>
       <c r="J12">
-        <v>3431</v>
+        <v>5965.19</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1270,31 +1603,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>212</v>
       </c>
       <c r="G13" t="s">
-        <v>150</v>
+        <v>267</v>
       </c>
       <c r="H13">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I13">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J13">
-        <v>90.97</v>
+        <v>10028.39</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1302,31 +1635,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="G14" t="s">
-        <v>151</v>
+        <v>267</v>
       </c>
       <c r="H14">
         <v>30</v>
       </c>
       <c r="I14">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J14">
-        <v>17000</v>
+        <v>6049.62</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1334,31 +1667,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>183</v>
       </c>
       <c r="F15" t="s">
-        <v>120</v>
+        <v>214</v>
       </c>
       <c r="G15" t="s">
-        <v>152</v>
+        <v>267</v>
       </c>
       <c r="H15">
         <v>30</v>
       </c>
       <c r="I15">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J15">
-        <v>17540.62</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1366,31 +1699,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>215</v>
       </c>
       <c r="G16" t="s">
-        <v>153</v>
+        <v>267</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I16">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J16">
-        <v>9461.07</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1398,31 +1731,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="F17" t="s">
-        <v>122</v>
+        <v>216</v>
       </c>
       <c r="G17" t="s">
-        <v>153</v>
+        <v>268</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I17">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J17">
-        <v>369.62</v>
+        <v>6679.29</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1430,31 +1763,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="F18" t="s">
-        <v>123</v>
+        <v>217</v>
       </c>
       <c r="G18" t="s">
-        <v>154</v>
+        <v>268</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I18">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J18">
-        <v>2136.05</v>
+        <v>5380.45</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1462,31 +1795,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="F19" t="s">
-        <v>124</v>
+        <v>218</v>
       </c>
       <c r="G19" t="s">
-        <v>155</v>
+        <v>269</v>
       </c>
       <c r="H19">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I19">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J19">
-        <v>7500</v>
+        <v>56028.8</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1494,31 +1827,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="F20" t="s">
-        <v>125</v>
+        <v>219</v>
       </c>
       <c r="G20" t="s">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="H20">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J20">
-        <v>10804.62</v>
+        <v>13285.2</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1526,31 +1859,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="F21" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="G21" t="s">
-        <v>156</v>
+        <v>270</v>
       </c>
       <c r="H21">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I21">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J21">
-        <v>17657.25</v>
+        <v>5181.96</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1558,31 +1891,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c r="F22" t="s">
-        <v>127</v>
+        <v>221</v>
       </c>
       <c r="G22" t="s">
-        <v>157</v>
+        <v>270</v>
       </c>
       <c r="H22">
         <v>30</v>
       </c>
       <c r="I22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J22">
-        <v>22712.47</v>
+        <v>5018.94</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1590,31 +1923,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="E23" t="s">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="F23" t="s">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="G23" t="s">
-        <v>158</v>
+        <v>271</v>
       </c>
       <c r="H23">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J23">
-        <v>6081</v>
+        <v>29723.07</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1622,31 +1955,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>178</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
+        <v>223</v>
       </c>
       <c r="G24" t="s">
-        <v>159</v>
+        <v>271</v>
       </c>
       <c r="H24">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>4</v>
       </c>
       <c r="J24">
-        <v>9199.01</v>
+        <v>12200</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1654,31 +1987,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="F25" t="s">
-        <v>130</v>
+        <v>224</v>
       </c>
       <c r="G25" t="s">
-        <v>160</v>
+        <v>272</v>
       </c>
       <c r="H25">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J25">
-        <v>12767.55</v>
+        <v>8000.5</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1686,31 +2019,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="F26" t="s">
-        <v>131</v>
+        <v>225</v>
       </c>
       <c r="G26" t="s">
-        <v>161</v>
+        <v>272</v>
       </c>
       <c r="H26">
         <v>30</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J26">
-        <v>4600.42</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1718,31 +2051,31 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="F27" t="s">
-        <v>132</v>
+        <v>226</v>
       </c>
       <c r="G27" t="s">
-        <v>162</v>
+        <v>272</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J27">
-        <v>70.40000000000001</v>
+        <v>4471.16</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1750,31 +2083,31 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="F28" t="s">
-        <v>133</v>
+        <v>227</v>
       </c>
       <c r="G28" t="s">
-        <v>163</v>
+        <v>272</v>
       </c>
       <c r="H28">
         <v>30</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J28">
-        <v>21901.38</v>
+        <v>2413.15</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1782,31 +2115,31 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="E29" t="s">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="F29" t="s">
-        <v>134</v>
+        <v>228</v>
       </c>
       <c r="G29" t="s">
-        <v>164</v>
+        <v>273</v>
       </c>
       <c r="H29">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J29">
-        <v>15153.05</v>
+        <v>17917.45</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1814,31 +2147,31 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="E30" t="s">
-        <v>104</v>
+        <v>193</v>
       </c>
       <c r="F30" t="s">
-        <v>135</v>
+        <v>229</v>
       </c>
       <c r="G30" t="s">
-        <v>163</v>
+        <v>273</v>
       </c>
       <c r="H30">
         <v>30</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J30">
-        <v>10523</v>
+        <v>14963.8</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1846,31 +2179,31 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="F31" t="s">
-        <v>136</v>
+        <v>230</v>
       </c>
       <c r="G31" t="s">
-        <v>163</v>
+        <v>273</v>
       </c>
       <c r="H31">
         <v>30</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J31">
-        <v>10078.24</v>
+        <v>14621.36</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1878,31 +2211,31 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="F32" t="s">
-        <v>137</v>
+        <v>231</v>
       </c>
       <c r="G32" t="s">
-        <v>146</v>
+        <v>273</v>
       </c>
       <c r="H32">
         <v>30</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32">
-        <v>14075.36</v>
+        <v>13030.84</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1910,31 +2243,767 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F33" t="s">
+        <v>232</v>
+      </c>
+      <c r="G33" t="s">
+        <v>273</v>
+      </c>
+      <c r="H33">
+        <v>30</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>12170.14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" t="s">
+        <v>149</v>
+      </c>
+      <c r="E34" t="s">
+        <v>193</v>
+      </c>
+      <c r="F34" t="s">
+        <v>233</v>
+      </c>
+      <c r="G34" t="s">
+        <v>273</v>
+      </c>
+      <c r="H34">
+        <v>30</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <v>8067.83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" t="s">
+        <v>195</v>
+      </c>
+      <c r="F35" t="s">
+        <v>234</v>
+      </c>
+      <c r="G35" t="s">
+        <v>273</v>
+      </c>
+      <c r="H35">
+        <v>30</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>7954.84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="C33" t="s">
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" t="s">
+        <v>194</v>
+      </c>
+      <c r="F36" t="s">
+        <v>235</v>
+      </c>
+      <c r="G36" t="s">
+        <v>274</v>
+      </c>
+      <c r="H36">
+        <v>45</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>37199.53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" t="s">
+        <v>152</v>
+      </c>
+      <c r="E37" t="s">
+        <v>196</v>
+      </c>
+      <c r="F37" t="s">
+        <v>236</v>
+      </c>
+      <c r="G37" t="s">
+        <v>258</v>
+      </c>
+      <c r="H37">
+        <v>30</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>30151.66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" t="s">
+        <v>153</v>
+      </c>
+      <c r="E38" t="s">
+        <v>191</v>
+      </c>
+      <c r="F38" t="s">
+        <v>237</v>
+      </c>
+      <c r="G38" t="s">
+        <v>258</v>
+      </c>
+      <c r="H38">
+        <v>30</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>24748.51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" t="s">
+        <v>154</v>
+      </c>
+      <c r="E39" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" t="s">
+        <v>238</v>
+      </c>
+      <c r="G39" t="s">
+        <v>258</v>
+      </c>
+      <c r="H39">
+        <v>30</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>12756.66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40" t="s">
+        <v>189</v>
+      </c>
+      <c r="F40" t="s">
+        <v>239</v>
+      </c>
+      <c r="G40" t="s">
+        <v>258</v>
+      </c>
+      <c r="H40">
+        <v>30</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>12014.77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" t="s">
+        <v>185</v>
+      </c>
+      <c r="F41" t="s">
+        <v>240</v>
+      </c>
+      <c r="G41" t="s">
+        <v>258</v>
+      </c>
+      <c r="H41">
+        <v>30</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>11827.22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42" t="s">
+        <v>182</v>
+      </c>
+      <c r="F42" t="s">
+        <v>241</v>
+      </c>
+      <c r="G42" t="s">
+        <v>258</v>
+      </c>
+      <c r="H42">
+        <v>30</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>11021.62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" t="s">
+        <v>158</v>
+      </c>
+      <c r="E43" t="s">
+        <v>191</v>
+      </c>
+      <c r="F43" t="s">
+        <v>242</v>
+      </c>
+      <c r="G43" t="s">
+        <v>258</v>
+      </c>
+      <c r="H43">
+        <v>30</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>8145.24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44" t="s">
+        <v>183</v>
+      </c>
+      <c r="F44" t="s">
+        <v>243</v>
+      </c>
+      <c r="G44" t="s">
+        <v>258</v>
+      </c>
+      <c r="H44">
+        <v>30</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>8134.56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" t="s">
+        <v>181</v>
+      </c>
+      <c r="F45" t="s">
+        <v>244</v>
+      </c>
+      <c r="G45" t="s">
+        <v>258</v>
+      </c>
+      <c r="H45">
+        <v>30</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>7453.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" t="s">
+        <v>161</v>
+      </c>
+      <c r="E46" t="s">
+        <v>197</v>
+      </c>
+      <c r="F46" t="s">
+        <v>245</v>
+      </c>
+      <c r="G46" t="s">
+        <v>258</v>
+      </c>
+      <c r="H46">
+        <v>30</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>6056.42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" t="s">
+        <v>185</v>
+      </c>
+      <c r="F47" t="s">
+        <v>246</v>
+      </c>
+      <c r="G47" t="s">
+        <v>258</v>
+      </c>
+      <c r="H47">
+        <v>30</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>5047.44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" t="s">
+        <v>163</v>
+      </c>
+      <c r="E48" t="s">
+        <v>198</v>
+      </c>
+      <c r="F48" t="s">
+        <v>247</v>
+      </c>
+      <c r="G48" t="s">
+        <v>258</v>
+      </c>
+      <c r="H48">
+        <v>30</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>4774.41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" t="s">
+        <v>164</v>
+      </c>
+      <c r="E49" t="s">
+        <v>194</v>
+      </c>
+      <c r="F49" t="s">
+        <v>248</v>
+      </c>
+      <c r="G49" t="s">
+        <v>264</v>
+      </c>
+      <c r="H49">
+        <v>45</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>26191.73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" t="s">
+        <v>165</v>
+      </c>
+      <c r="E50" t="s">
+        <v>173</v>
+      </c>
+      <c r="F50" t="s">
+        <v>249</v>
+      </c>
+      <c r="G50" t="s">
+        <v>275</v>
+      </c>
+      <c r="H50">
+        <v>30</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>12162.21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" t="s">
+        <v>166</v>
+      </c>
+      <c r="E51" t="s">
+        <v>199</v>
+      </c>
+      <c r="F51" t="s">
+        <v>250</v>
+      </c>
+      <c r="G51" t="s">
+        <v>275</v>
+      </c>
+      <c r="H51">
+        <v>30</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>12087.93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" t="s">
+        <v>167</v>
+      </c>
+      <c r="E52" t="s">
+        <v>200</v>
+      </c>
+      <c r="F52" t="s">
+        <v>251</v>
+      </c>
+      <c r="G52" t="s">
+        <v>275</v>
+      </c>
+      <c r="H52">
+        <v>30</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>8262.540000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" t="s">
+        <v>200</v>
+      </c>
+      <c r="F53" t="s">
+        <v>252</v>
+      </c>
+      <c r="G53" t="s">
+        <v>275</v>
+      </c>
+      <c r="H53">
+        <v>30</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>7993.08</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
         <v>61</v>
       </c>
-      <c r="D33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" t="s">
-        <v>93</v>
-      </c>
-      <c r="F33" t="s">
-        <v>138</v>
-      </c>
-      <c r="G33" t="s">
-        <v>146</v>
-      </c>
-      <c r="H33">
-        <v>30</v>
-      </c>
-      <c r="I33">
+      <c r="C54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" t="s">
+        <v>169</v>
+      </c>
+      <c r="E54" t="s">
+        <v>190</v>
+      </c>
+      <c r="F54" t="s">
+        <v>253</v>
+      </c>
+      <c r="G54" t="s">
+        <v>275</v>
+      </c>
+      <c r="H54">
+        <v>30</v>
+      </c>
+      <c r="I54">
         <v>1</v>
       </c>
-      <c r="J33">
-        <v>9935.32</v>
+      <c r="J54">
+        <v>7260.31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" t="s">
+        <v>170</v>
+      </c>
+      <c r="E55" t="s">
+        <v>173</v>
+      </c>
+      <c r="F55" t="s">
+        <v>254</v>
+      </c>
+      <c r="G55" t="s">
+        <v>275</v>
+      </c>
+      <c r="H55">
+        <v>30</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>5102.38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" t="s">
+        <v>171</v>
+      </c>
+      <c r="E56" t="s">
+        <v>177</v>
+      </c>
+      <c r="F56" t="s">
+        <v>255</v>
+      </c>
+      <c r="G56" t="s">
+        <v>275</v>
+      </c>
+      <c r="H56">
+        <v>30</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>4170.78</v>
       </c>
     </row>
   </sheetData>

--- a/Data/AgingMatured.xlsx
+++ b/Data/AgingMatured.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="268">
   <si>
     <t>Cust ID</t>
   </si>
@@ -43,805 +43,781 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>90000028229</t>
-  </si>
-  <si>
-    <t>90000014597</t>
-  </si>
-  <si>
-    <t>44019001544</t>
-  </si>
-  <si>
-    <t>90000029246</t>
-  </si>
-  <si>
-    <t>44031106594</t>
-  </si>
-  <si>
-    <t>4406114678</t>
-  </si>
-  <si>
-    <t>44019008675</t>
-  </si>
-  <si>
-    <t>44037801992</t>
-  </si>
-  <si>
-    <t>44037801368</t>
-  </si>
-  <si>
-    <t>90000003945</t>
-  </si>
-  <si>
-    <t>44031000237</t>
-  </si>
-  <si>
-    <t>44019001016</t>
-  </si>
-  <si>
-    <t>44019003221</t>
-  </si>
-  <si>
-    <t>44019003034</t>
-  </si>
-  <si>
-    <t>44031106947</t>
-  </si>
-  <si>
-    <t>44031000626</t>
-  </si>
-  <si>
-    <t>44019003399</t>
-  </si>
-  <si>
-    <t>90000018632</t>
-  </si>
-  <si>
-    <t>44019002997</t>
-  </si>
-  <si>
-    <t>44019001746</t>
-  </si>
-  <si>
-    <t>44019000528</t>
-  </si>
-  <si>
-    <t>44019004001</t>
-  </si>
-  <si>
-    <t>44019003560</t>
-  </si>
-  <si>
-    <t>90000025671</t>
-  </si>
-  <si>
-    <t>44037800819</t>
-  </si>
-  <si>
-    <t>4401900206</t>
-  </si>
-  <si>
-    <t>44031101821</t>
-  </si>
-  <si>
-    <t>44019000437</t>
-  </si>
-  <si>
-    <t>44037801134</t>
-  </si>
-  <si>
-    <t>44019000314</t>
-  </si>
-  <si>
-    <t>44031000004</t>
-  </si>
-  <si>
-    <t>4406114691</t>
-  </si>
-  <si>
-    <t>44031002813</t>
-  </si>
-  <si>
-    <t>90000003295</t>
-  </si>
-  <si>
-    <t>90000041675</t>
-  </si>
-  <si>
-    <t>44031100420</t>
-  </si>
-  <si>
-    <t>44037799564</t>
-  </si>
-  <si>
-    <t>44019004795</t>
-  </si>
-  <si>
-    <t>44031107361</t>
-  </si>
-  <si>
-    <t>44019000739</t>
-  </si>
-  <si>
-    <t>44037801057</t>
-  </si>
-  <si>
-    <t>44037801484</t>
-  </si>
-  <si>
-    <t>44019002282</t>
-  </si>
-  <si>
-    <t>44019001195</t>
-  </si>
-  <si>
-    <t>44019001905</t>
-  </si>
-  <si>
-    <t>44019004679</t>
-  </si>
-  <si>
-    <t>44019004816</t>
-  </si>
-  <si>
-    <t>90000019818</t>
-  </si>
-  <si>
-    <t>4406114661</t>
-  </si>
-  <si>
-    <t>44031100874</t>
-  </si>
-  <si>
-    <t>44019002054</t>
-  </si>
-  <si>
-    <t>4401900159</t>
-  </si>
-  <si>
-    <t>44019001332</t>
-  </si>
-  <si>
-    <t>4406114599</t>
-  </si>
-  <si>
-    <t>4406114540</t>
-  </si>
-  <si>
-    <t>Bondhon Hospital</t>
-  </si>
-  <si>
-    <t>Litu Pharmacy</t>
-  </si>
-  <si>
-    <t>Lily Pharmacy</t>
-  </si>
-  <si>
-    <t>Al Nur Hospital</t>
-  </si>
-  <si>
-    <t>Gazi Pharmacy</t>
+    <t>27012121003</t>
+  </si>
+  <si>
+    <t>27012100506</t>
+  </si>
+  <si>
+    <t>27021656671</t>
+  </si>
+  <si>
+    <t>27012110435</t>
+  </si>
+  <si>
+    <t>27021001292</t>
+  </si>
+  <si>
+    <t>27012111631</t>
+  </si>
+  <si>
+    <t>27012112727</t>
+  </si>
+  <si>
+    <t>27012110084</t>
+  </si>
+  <si>
+    <t>27021110314</t>
+  </si>
+  <si>
+    <t>27012111978</t>
+  </si>
+  <si>
+    <t>27061001811</t>
+  </si>
+  <si>
+    <t>27012100123</t>
+  </si>
+  <si>
+    <t>27061001146</t>
+  </si>
+  <si>
+    <t>27012101755</t>
+  </si>
+  <si>
+    <t>27012121246</t>
+  </si>
+  <si>
+    <t>90000000829</t>
+  </si>
+  <si>
+    <t>27012101865</t>
+  </si>
+  <si>
+    <t>27012101246</t>
+  </si>
+  <si>
+    <t>27012100286</t>
+  </si>
+  <si>
+    <t>27012119997</t>
+  </si>
+  <si>
+    <t>27012111325</t>
+  </si>
+  <si>
+    <t>27012119976</t>
+  </si>
+  <si>
+    <t>90000005017</t>
+  </si>
+  <si>
+    <t>27012100492</t>
+  </si>
+  <si>
+    <t>27012101138</t>
+  </si>
+  <si>
+    <t>27012112603</t>
+  </si>
+  <si>
+    <t>27012111215</t>
+  </si>
+  <si>
+    <t>27012211752</t>
+  </si>
+  <si>
+    <t>90000001034</t>
+  </si>
+  <si>
+    <t>27012121183</t>
+  </si>
+  <si>
+    <t>27012121326</t>
+  </si>
+  <si>
+    <t>27012111544</t>
+  </si>
+  <si>
+    <t>27021000184</t>
+  </si>
+  <si>
+    <t>27012210116</t>
+  </si>
+  <si>
+    <t>27021004401</t>
+  </si>
+  <si>
+    <t>27021100304</t>
+  </si>
+  <si>
+    <t>27021004756</t>
+  </si>
+  <si>
+    <t>27021100557</t>
+  </si>
+  <si>
+    <t>27021006633</t>
+  </si>
+  <si>
+    <t>2702165669138</t>
+  </si>
+  <si>
+    <t>27021001580</t>
+  </si>
+  <si>
+    <t>27021004184</t>
+  </si>
+  <si>
+    <t>27021001427</t>
+  </si>
+  <si>
+    <t>90000013699</t>
+  </si>
+  <si>
+    <t>27012101289</t>
+  </si>
+  <si>
+    <t>27021100046</t>
+  </si>
+  <si>
+    <t>27021006611</t>
+  </si>
+  <si>
+    <t>27012211594</t>
+  </si>
+  <si>
+    <t>27012101950</t>
+  </si>
+  <si>
+    <t>27012120060</t>
+  </si>
+  <si>
+    <t>27012100250</t>
+  </si>
+  <si>
+    <t>27012111327</t>
+  </si>
+  <si>
+    <t>27012120064</t>
+  </si>
+  <si>
+    <t>27012113711</t>
+  </si>
+  <si>
+    <t>27012100602</t>
+  </si>
+  <si>
+    <t>Sonia Medicine Corner</t>
+  </si>
+  <si>
+    <t>Mukul Medical Hall</t>
+  </si>
+  <si>
+    <t>Mitaly Pharmacy</t>
+  </si>
+  <si>
+    <t>Dayamaya Pharmacy</t>
+  </si>
+  <si>
+    <t>M R Pharmacy</t>
+  </si>
+  <si>
+    <t>Chowdhury Pharmacy</t>
+  </si>
+  <si>
+    <t>Janani Medical Hall</t>
+  </si>
+  <si>
+    <t>Life Care</t>
+  </si>
+  <si>
+    <t>Medicim corner</t>
+  </si>
+  <si>
+    <t>Manarat Hospital</t>
+  </si>
+  <si>
+    <t>Gangra Medicine Corner</t>
+  </si>
+  <si>
+    <t>Alam Pharmacy</t>
+  </si>
+  <si>
+    <t>Zihad Medical Hall</t>
+  </si>
+  <si>
+    <t>Sadia Pharmacy</t>
+  </si>
+  <si>
+    <t>Master Drug House</t>
+  </si>
+  <si>
+    <t>EMA Medicine Corner</t>
+  </si>
+  <si>
+    <t>Maa Moni Medical Hall</t>
+  </si>
+  <si>
+    <t>Salman Medical Hall</t>
+  </si>
+  <si>
+    <t>Maa Medical Hall</t>
+  </si>
+  <si>
+    <t>Kalyan Medical Hall</t>
+  </si>
+  <si>
+    <t>Sabuj Medical Hall</t>
+  </si>
+  <si>
+    <t>Subrata Medical Hall</t>
+  </si>
+  <si>
+    <t>Akash Medical Hall</t>
+  </si>
+  <si>
+    <t>Sree Krishna Medical Hall</t>
+  </si>
+  <si>
+    <t>Hazi Clinic</t>
+  </si>
+  <si>
+    <t>Shaheen Medical Hall</t>
+  </si>
+  <si>
+    <t>Aushad Ghar</t>
+  </si>
+  <si>
+    <t>Al Khidma Diagonistic Center</t>
+  </si>
+  <si>
+    <t>Ifaz Medical Hall</t>
+  </si>
+  <si>
+    <t>Punam Madicine Corner</t>
+  </si>
+  <si>
+    <t>Modina Medical Hall</t>
+  </si>
+  <si>
+    <t>Salam Medical Hall</t>
+  </si>
+  <si>
+    <t>Chowdhury Medical Hall</t>
+  </si>
+  <si>
+    <t>Probu Medical Hall</t>
+  </si>
+  <si>
+    <t>Masud Pharmacy</t>
+  </si>
+  <si>
+    <t>Mynee Mukh Medical Hall</t>
+  </si>
+  <si>
+    <t>Niramoy Pharmacy</t>
+  </si>
+  <si>
+    <t>Chandra Prohar</t>
   </si>
   <si>
     <t>Popular Pharmacy</t>
   </si>
   <si>
-    <t>Ibn Sina Diagnostic Center</t>
-  </si>
-  <si>
-    <t>Sher E Bangla Clinic</t>
-  </si>
-  <si>
-    <t>Ram Krishna pharmacy</t>
-  </si>
-  <si>
-    <t>Dalia Clinic</t>
-  </si>
-  <si>
-    <t>National Medical Hall</t>
-  </si>
-  <si>
-    <t>Raju Pharmacy</t>
-  </si>
-  <si>
-    <t>Shorif Pharmacy</t>
-  </si>
-  <si>
-    <t>Das Pharmacy</t>
-  </si>
-  <si>
-    <t>Rojina Pharmacy</t>
-  </si>
-  <si>
-    <t>Janoni Pharmacy</t>
-  </si>
-  <si>
-    <t>Bikalpo Pharmacy</t>
-  </si>
-  <si>
-    <t>China Bangla  CB  Hospital</t>
-  </si>
-  <si>
-    <t>Al Muaz Pharmacy</t>
-  </si>
-  <si>
-    <t>Matree Medical Hall</t>
-  </si>
-  <si>
-    <t>Dr. Arobindu</t>
-  </si>
-  <si>
-    <t>Allahar Dan Clinic</t>
-  </si>
-  <si>
-    <t>Unique Hospital</t>
-  </si>
-  <si>
-    <t>SKH Pharmacy</t>
-  </si>
-  <si>
-    <t>Dr Volanath Paul</t>
-  </si>
-  <si>
-    <t>Majid Pharmacy</t>
-  </si>
-  <si>
-    <t>Ety Pharmacy</t>
-  </si>
-  <si>
-    <t>Kohinoor Pharmacy</t>
-  </si>
-  <si>
-    <t>Saleha Medical Hall</t>
-  </si>
-  <si>
-    <t>Medicine Corner</t>
-  </si>
-  <si>
-    <t>Satata Pharmacy</t>
-  </si>
-  <si>
-    <t>Urme Pharmacy</t>
-  </si>
-  <si>
-    <t>New Hasan Medical Hall</t>
-  </si>
-  <si>
-    <t>Niramoy Clinic &amp; Diagonostic C</t>
-  </si>
-  <si>
-    <t>Farid Medical Hall</t>
-  </si>
-  <si>
-    <t>Sufia Pharmacy</t>
-  </si>
-  <si>
-    <t>Mubin Pharmacy</t>
-  </si>
-  <si>
-    <t>Echamoti Drug House</t>
-  </si>
-  <si>
-    <t>United Medical Store</t>
-  </si>
-  <si>
-    <t>Shariear Pharmacy</t>
-  </si>
-  <si>
-    <t>Ahasan Drug House</t>
-  </si>
-  <si>
-    <t>Seba Clinic</t>
-  </si>
-  <si>
-    <t>Dr Rafiqul Islam</t>
-  </si>
-  <si>
-    <t>Asha Pharmacy</t>
-  </si>
-  <si>
-    <t>Fatama Pharmacy</t>
-  </si>
-  <si>
-    <t>Prathomic Sastho Seba Kendro</t>
-  </si>
-  <si>
-    <t>Suraksha Medical Hall</t>
-  </si>
-  <si>
-    <t>Maa Medical</t>
-  </si>
-  <si>
-    <t>Shamim Pharmacy</t>
-  </si>
-  <si>
-    <t>Anik Pharmacy</t>
-  </si>
-  <si>
-    <t>Iran Medical Hall</t>
-  </si>
-  <si>
-    <t>Dr Joydab Adhikari</t>
-  </si>
-  <si>
-    <t>Rafa Medical Hall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96,Jail Road, Jessore                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manderbaria Bazar,Kaligonj,Jhenaidah                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monirampur Jessore                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khulna road,Satkhira                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Gate Shymnagar                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaligonj, jhenaidah                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jail Road Jesore                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nolta Satlhira                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhuliar Bazar Satkhira                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C &amp; B Road Lohagara                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uzirpur Bazar Assashuni Satkhira                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Gate Narail                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kumri Bazar Lohagara Narail                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheikhati Bazar, Narail                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chalteghata Bazar Shyamnagar                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kakbosia Bazar Assasuni                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khalashi Bazar Chowgacha                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chowrongi More, Khulna Road, Satkhira                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rupdia Bazar Jessore                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bagharpara Jessore                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bagaharpara Jessore                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laxmipasha Lohagora Narail                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Gate Jessore                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makrail Bazar,Lohagora                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhatshala Parulia Satkhira                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uttar Dighi Vatpara Noapara                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vetkhali Shaymnagar Satkhira                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chutipur Bazar Jessore                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patkelghata Bazar Patkelghata Khulna MD Mehedi Hassan       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jhikorgacha Jessore                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polashpole Satkhira                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ganna Bazar Kaligonj Jhenaidah                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porar Bazar Patkelghata Satkhira                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kolaroa Bazar,Satkhira                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shahid Kazol Saroni,Polashpole,Satkhira                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nowabiki Shamnagar Satkhira                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Munsur Sardar Gareg Munsigonj Satkhira                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monirampur Bazar Jessore                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Town Sripur Debhata Satkhira                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purapara Chowgasa Jessore                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kadakati Bazar Budhata Satkhira                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bongshipur Bazar Shayamnagar                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khorori Bazar Narail Mobile 01720929616                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachuria Bazar Digholia Road Lohagara                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sisutala Bazar Moheshpur                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arpara Bazar Chowhacha Jessore                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garochora Bazar Narail                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satkhira                                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tottipur Bazar Kaligonj Kaligonj                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baganchra Sharsha Jessore                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dharmatalar More Jessore                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Gate Jesore                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO Doctors Clinic Hospital Road Nowapara                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kurar Bazar Kaligonj Jhenaidha                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talshar Bazar Kaligonj JHD                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS22                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS91                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS73                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS51                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS84                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS92                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS14                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS44                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS53                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS33                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS52                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS31                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS54                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS12                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS21                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS24                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS32                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS43                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS75                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS81                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS61                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS104                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS41                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS102                                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS82                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS94                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS34                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS63                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JS13                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-328103     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-463006     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-467048     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-445659     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-469487     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-469850     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-451099     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-473944     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-459896     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-476164     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-461819     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-462491     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-462021     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-462036     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-461796     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-463044     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-463702     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-457183     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-465161     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-465528     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-465464     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-480792     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-480581     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-465727     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-466223     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-465748     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-465913     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-466495     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-466623     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-466536     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-466430     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-466467     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-466555     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-466588     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-459173     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-467140     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-466928     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-466471     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-466728     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-467076     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-467322     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-466792     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-467020     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-467307     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-467103     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-467114     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-466705     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-459656     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-467733     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-467558     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-467487     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-467442     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-467666     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-467734     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV440-467556     </t>
-  </si>
-  <si>
-    <t>04 Nov 2019</t>
+    <t>Sunil Pharmacy</t>
+  </si>
+  <si>
+    <t>Brac Health Center</t>
+  </si>
+  <si>
+    <t>Mamun Pharmacy</t>
+  </si>
+  <si>
+    <t>Aman Medical Hall</t>
+  </si>
+  <si>
+    <t>Kamruzzaman Pharmacy</t>
+  </si>
+  <si>
+    <t>City Medical Hall</t>
+  </si>
+  <si>
+    <t>Sabuj Pharmacy</t>
+  </si>
+  <si>
+    <t>Habib Medicall Hall</t>
+  </si>
+  <si>
+    <t>S R Pharmacy</t>
+  </si>
+  <si>
+    <t>Jannat Medical Hall</t>
+  </si>
+  <si>
+    <t>H K Pharmacy</t>
+  </si>
+  <si>
+    <t>Kajol Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baker Bazar                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suvopur Natun Bazar Feni                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muslimpara Matiranga Khagrachari                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chhagolnaiya                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belchari Bazar Matiranga                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shuvopur Chagolnaiya  Feni                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daroga Hat Chhagolnaiya                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chhagalnaiya Feni                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matirunga Chittagong Ctg                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chhagolnaiya Feni                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gangra Bazar Chawddagram Comilla                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Road Basurhat                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noa Bazar Mia Bazar Comilla                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elahigonj Bazer Feni                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old Muharigonj Fazilpur Feni                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trank Road                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S S K Road                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shanti Co Road                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Ukilpara Feni                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Munshirhat Fulgazi                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sundorpur Bazar Feni                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akotabazer Basurhat Noakhali                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chairman Market Alkora Feni                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramghor Bazar Khagrachori                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C O Dr Shahidul Islam Dagonbhuiyan                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rumgor Bazar                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramghor                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kutirhat Bazar,Sonagazi                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santi Dhara R/A Feni                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namer Bazar Daganbhuiya Feni                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phatan Bari Road Near Islam Dental                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munshirhat Fulgazi Feni                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Road, Langdhu                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr Goutam Shaha Accademy Feni                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baggaichari Khagrachari                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mynee Bazer Khagrachori                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boyragi Bazer Longgudu                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanir Voar Bazar Khagrachari                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longgudu Rangamati                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gatha chora Mynee CTG                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Board Office Matiranga CTG                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Babuchora,Diginala,Khagrachari                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Babuchara Dighinala                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dudhmukha, Basurhat                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rampur High School Feni                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baittapara Langadu                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baddya para Mynee                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gunobati Bazar Feni                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elahi Gonj Bazer Feni                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uttar Kasimpur Feni 8801718093024                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gunibuti Bazar                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajapur Bazar Feni                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pathan Bari Road Feni                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uttar Kashimpu Feni                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolla Pukur par Gunobuthi Feni                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK63                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK31                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK57                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK54                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK71                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK61                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK73                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK13                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK44                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK21                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK11                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK22                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK33                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK65                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK52                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK66                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK46                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK62                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR84                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK26                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK56                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK51                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK53                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK74                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK24                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-259077     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-333204     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-345414     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-335764     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-348744     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-339225     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-339096     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-339226     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-350176     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-338056     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-344629     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-345393     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-346107     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-346825     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-347109     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-346714     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-347035     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-346858     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-346851     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-347930     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-347559     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-348040     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-347671     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-348310     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-338095     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-348186     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-348246     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-348235     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-348345     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-348644     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-348294     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-348814     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-348834     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-348668     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-348830     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-348772     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-348774     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-348877     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-348770     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-348771     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-348882     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-348748     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-348735     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-358067     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-348671     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-348766     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-348768     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349040     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-348923     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-348975     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-348895     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-349060     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-348889     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-348961     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV270-348952     </t>
+  </si>
+  <si>
+    <t>29 Dec 2019</t>
+  </si>
+  <si>
+    <t>09 Aug 2020</t>
+  </si>
+  <si>
+    <t>14 Sep 2020</t>
+  </si>
+  <si>
+    <t>16 Aug 2020</t>
+  </si>
+  <si>
+    <t>24 Sep 2020</t>
+  </si>
+  <si>
+    <t>26 Aug 2020</t>
+  </si>
+  <si>
+    <t>28 Sep 2020</t>
+  </si>
+  <si>
+    <t>23 Aug 2020</t>
   </si>
   <si>
     <t>13 Sep 2020</t>
   </si>
   <si>
+    <t>16 Sep 2020</t>
+  </si>
+  <si>
+    <t>18 Sep 2020</t>
+  </si>
+  <si>
+    <t>19 Sep 2020</t>
+  </si>
+  <si>
+    <t>20 Sep 2020</t>
+  </si>
+  <si>
     <t>21 Sep 2020</t>
   </si>
   <si>
-    <t>10 Aug 2020</t>
-  </si>
-  <si>
-    <t>26 Sep 2020</t>
-  </si>
-  <si>
-    <t>27 Sep 2020</t>
-  </si>
-  <si>
-    <t>20 Aug 2020</t>
-  </si>
-  <si>
-    <t>05 Oct 2020</t>
-  </si>
-  <si>
-    <t>07 Sep 2020</t>
-  </si>
-  <si>
-    <t>10 Oct 2020</t>
-  </si>
-  <si>
-    <t>11 Sep 2020</t>
-  </si>
-  <si>
-    <t>12 Sep 2020</t>
-  </si>
-  <si>
-    <t>14 Sep 2020</t>
-  </si>
-  <si>
-    <t>02 Sep 2020</t>
-  </si>
-  <si>
-    <t>18 Sep 2020</t>
-  </si>
-  <si>
-    <t>19 Oct 2020</t>
-  </si>
-  <si>
-    <t>19 Sep 2020</t>
-  </si>
-  <si>
-    <t>20 Sep 2020</t>
-  </si>
-  <si>
-    <t>06 Sep 2020</t>
-  </si>
-  <si>
     <t>22 Sep 2020</t>
+  </si>
+  <si>
+    <t>23 Sep 2020</t>
+  </si>
+  <si>
+    <t>24 Oct 2020</t>
+  </si>
+  <si>
+    <t>25 Sep 2020</t>
   </si>
 </sst>
 </file>
@@ -1257,25 +1233,25 @@
         <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I2">
-        <v>354</v>
+        <v>272</v>
       </c>
       <c r="J2">
-        <v>37965.05</v>
+        <v>8026.76</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1289,25 +1265,25 @@
         <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I3">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J3">
-        <v>4309.3</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1321,25 +1297,25 @@
         <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="J4">
-        <v>12174.16</v>
+        <v>6563.71</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1353,25 +1329,25 @@
         <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F5" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G5" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H5">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I5">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="J5">
-        <v>19193.25</v>
+        <v>20086.5</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1385,25 +1361,25 @@
         <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G6" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J6">
-        <v>12015.95</v>
+        <v>4029.21</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1417,25 +1393,25 @@
         <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I7">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J7">
-        <v>6099.06</v>
+        <v>14897.92</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1449,25 +1425,25 @@
         <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G8" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H8">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I8">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J8">
-        <v>286.66</v>
+        <v>9649.280000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1481,25 +1457,25 @@
         <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E9" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F9" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G9" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="J9">
-        <v>51924.81</v>
+        <v>2594.85</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1513,25 +1489,25 @@
         <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G10" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H10">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="J10">
-        <v>9758.530000000001</v>
+        <v>9708.389999999999</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1545,25 +1521,25 @@
         <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F11" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G11" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I11">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J11">
-        <v>12055.35</v>
+        <v>49990.08</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1577,25 +1553,25 @@
         <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F12" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G12" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="H12">
         <v>30</v>
       </c>
       <c r="I12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J12">
-        <v>5965.19</v>
+        <v>5015.22</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1609,25 +1585,25 @@
         <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F13" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G13" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="H13">
         <v>30</v>
       </c>
       <c r="I13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J13">
-        <v>10028.39</v>
+        <v>17077.31</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1641,25 +1617,25 @@
         <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E14" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F14" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G14" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H14">
         <v>30</v>
       </c>
       <c r="I14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J14">
-        <v>6049.62</v>
+        <v>3909.68</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1673,25 +1649,25 @@
         <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E15" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F15" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G15" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H15">
         <v>30</v>
       </c>
       <c r="I15">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J15">
-        <v>5000</v>
+        <v>2015.83</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1705,25 +1681,25 @@
         <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F16" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G16" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H16">
         <v>30</v>
       </c>
       <c r="I16">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>11871.83</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1737,25 +1713,25 @@
         <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E17" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F17" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G17" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H17">
         <v>30</v>
       </c>
       <c r="I17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J17">
-        <v>6679.29</v>
+        <v>3987.76</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1769,25 +1745,25 @@
         <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E18" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F18" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G18" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H18">
         <v>30</v>
       </c>
       <c r="I18">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J18">
-        <v>5380.45</v>
+        <v>3982.01</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1801,25 +1777,25 @@
         <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E19" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F19" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G19" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="H19">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J19">
-        <v>56028.8</v>
+        <v>1000.26</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1833,25 +1809,25 @@
         <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E20" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F20" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G20" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="H20">
         <v>30</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J20">
-        <v>13285.2</v>
+        <v>10057.38</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1865,16 +1841,16 @@
         <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F21" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G21" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H21">
         <v>30</v>
@@ -1883,7 +1859,7 @@
         <v>5</v>
       </c>
       <c r="J21">
-        <v>5181.96</v>
+        <v>6976.01</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1897,16 +1873,16 @@
         <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E22" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F22" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G22" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H22">
         <v>30</v>
@@ -1915,7 +1891,7 @@
         <v>5</v>
       </c>
       <c r="J22">
-        <v>5018.94</v>
+        <v>6873.34</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1929,25 +1905,25 @@
         <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E23" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F23" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G23" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J23">
-        <v>29723.07</v>
+        <v>4984.62</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1961,25 +1937,25 @@
         <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F24" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G24" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J24">
-        <v>12200</v>
+        <v>4967.25</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1993,16 +1969,16 @@
         <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E25" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F25" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G25" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="H25">
         <v>30</v>
@@ -2011,7 +1987,7 @@
         <v>4</v>
       </c>
       <c r="J25">
-        <v>8000.5</v>
+        <v>24964.15</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2025,25 +2001,25 @@
         <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E26" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F26" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G26" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="H26">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I26">
         <v>4</v>
       </c>
       <c r="J26">
-        <v>5000</v>
+        <v>15010.65</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2057,16 +2033,16 @@
         <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E27" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F27" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G27" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="H27">
         <v>30</v>
@@ -2075,7 +2051,7 @@
         <v>4</v>
       </c>
       <c r="J27">
-        <v>4471.16</v>
+        <v>9999.190000000001</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2089,16 +2065,16 @@
         <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E28" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F28" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G28" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="H28">
         <v>30</v>
@@ -2107,7 +2083,7 @@
         <v>4</v>
       </c>
       <c r="J28">
-        <v>2413.15</v>
+        <v>5037.59</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2121,25 +2097,25 @@
         <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E29" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F29" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G29" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="H29">
         <v>30</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J29">
-        <v>17917.45</v>
+        <v>4282.93</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2153,16 +2129,16 @@
         <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E30" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="F30" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G30" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="H30">
         <v>30</v>
@@ -2171,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="J30">
-        <v>14963.8</v>
+        <v>9999.42</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2185,16 +2161,16 @@
         <v>93</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E31" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F31" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G31" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="H31">
         <v>30</v>
@@ -2203,7 +2179,7 @@
         <v>3</v>
       </c>
       <c r="J31">
-        <v>14621.36</v>
+        <v>9956.379999999999</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2217,16 +2193,16 @@
         <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E32" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F32" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G32" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="H32">
         <v>30</v>
@@ -2235,7 +2211,7 @@
         <v>3</v>
       </c>
       <c r="J32">
-        <v>13030.84</v>
+        <v>3990.1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2246,28 +2222,28 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E33" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F33" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G33" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="H33">
         <v>30</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J33">
-        <v>12170.14</v>
+        <v>14977.18</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2278,28 +2254,28 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E34" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F34" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G34" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="H34">
         <v>30</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J34">
-        <v>8067.83</v>
+        <v>14532.89</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2310,28 +2286,28 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E35" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F35" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G35" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="H35">
         <v>30</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J35">
-        <v>7954.84</v>
+        <v>13476.68</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2342,28 +2318,28 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E36" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F36" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G36" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="H36">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I36">
         <v>2</v>
       </c>
       <c r="J36">
-        <v>37199.53</v>
+        <v>10002.51</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2374,19 +2350,19 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E37" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F37" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G37" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H37">
         <v>30</v>
@@ -2395,7 +2371,7 @@
         <v>2</v>
       </c>
       <c r="J37">
-        <v>30151.66</v>
+        <v>9905.290000000001</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2406,19 +2382,19 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E38" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F38" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G38" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H38">
         <v>30</v>
@@ -2427,7 +2403,7 @@
         <v>2</v>
       </c>
       <c r="J38">
-        <v>24748.51</v>
+        <v>9904.459999999999</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2438,19 +2414,19 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E39" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="F39" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G39" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H39">
         <v>30</v>
@@ -2459,7 +2435,7 @@
         <v>2</v>
       </c>
       <c r="J39">
-        <v>12756.66</v>
+        <v>9892.52</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2470,19 +2446,19 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F40" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G40" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H40">
         <v>30</v>
@@ -2491,7 +2467,7 @@
         <v>2</v>
       </c>
       <c r="J40">
-        <v>12014.77</v>
+        <v>9833.58</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2505,16 +2481,16 @@
         <v>102</v>
       </c>
       <c r="D41" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E41" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F41" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G41" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H41">
         <v>30</v>
@@ -2523,7 +2499,7 @@
         <v>2</v>
       </c>
       <c r="J41">
-        <v>11827.22</v>
+        <v>9723.809999999999</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2534,19 +2510,19 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E42" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F42" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G42" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H42">
         <v>30</v>
@@ -2555,7 +2531,7 @@
         <v>2</v>
       </c>
       <c r="J42">
-        <v>11021.62</v>
+        <v>8069.38</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2566,19 +2542,19 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D43" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E43" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F43" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G43" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H43">
         <v>30</v>
@@ -2587,7 +2563,7 @@
         <v>2</v>
       </c>
       <c r="J43">
-        <v>8145.24</v>
+        <v>7013.85</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2598,19 +2574,19 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D44" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E44" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="F44" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G44" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H44">
         <v>30</v>
@@ -2619,7 +2595,7 @@
         <v>2</v>
       </c>
       <c r="J44">
-        <v>8134.56</v>
+        <v>6963.22</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2630,28 +2606,28 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E45" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F45" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G45" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="H45">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>2</v>
       </c>
       <c r="J45">
-        <v>7453.8</v>
+        <v>5651.77</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2662,19 +2638,19 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D46" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E46" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="F46" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G46" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H46">
         <v>30</v>
@@ -2683,7 +2659,7 @@
         <v>2</v>
       </c>
       <c r="J46">
-        <v>6056.42</v>
+        <v>4986.04</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2694,19 +2670,19 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D47" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E47" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F47" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G47" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H47">
         <v>30</v>
@@ -2715,7 +2691,7 @@
         <v>2</v>
       </c>
       <c r="J47">
-        <v>5047.44</v>
+        <v>4903.78</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2726,19 +2702,19 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D48" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E48" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F48" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G48" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H48">
         <v>30</v>
@@ -2747,7 +2723,7 @@
         <v>2</v>
       </c>
       <c r="J48">
-        <v>4774.41</v>
+        <v>4898.54</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2758,28 +2734,28 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="D49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F49" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G49" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H49">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49">
-        <v>26191.73</v>
+        <v>13020.3</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2790,19 +2766,19 @@
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E50" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F50" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G50" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H50">
         <v>30</v>
@@ -2811,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="J50">
-        <v>12162.21</v>
+        <v>10036.2</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2822,19 +2798,19 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D51" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E51" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="F51" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G51" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H51">
         <v>30</v>
@@ -2843,7 +2819,7 @@
         <v>1</v>
       </c>
       <c r="J51">
-        <v>12087.93</v>
+        <v>9860.790000000001</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2854,19 +2830,19 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D52" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E52" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F52" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G52" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H52">
         <v>30</v>
@@ -2875,7 +2851,7 @@
         <v>1</v>
       </c>
       <c r="J52">
-        <v>8262.540000000001</v>
+        <v>9855.9</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2886,19 +2862,19 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D53" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E53" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F53" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G53" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H53">
         <v>30</v>
@@ -2907,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="J53">
-        <v>7993.08</v>
+        <v>8009.25</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2918,19 +2894,19 @@
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D54" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E54" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F54" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G54" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H54">
         <v>30</v>
@@ -2939,7 +2915,7 @@
         <v>1</v>
       </c>
       <c r="J54">
-        <v>7260.31</v>
+        <v>4998.09</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2950,19 +2926,19 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D55" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E55" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F55" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G55" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H55">
         <v>30</v>
@@ -2971,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="J55">
-        <v>5102.38</v>
+        <v>4992.19</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2982,19 +2958,19 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D56" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E56" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F56" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G56" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H56">
         <v>30</v>
@@ -3003,7 +2979,7 @@
         <v>1</v>
       </c>
       <c r="J56">
-        <v>4170.78</v>
+        <v>3085.9</v>
       </c>
     </row>
   </sheetData>

--- a/Data/AgingMatured.xlsx
+++ b/Data/AgingMatured.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="387">
   <si>
     <t>Cust ID</t>
   </si>
@@ -46,1009 +46,1135 @@
     <t>43061104782</t>
   </si>
   <si>
-    <t>43061109178</t>
-  </si>
-  <si>
-    <t>4301901209</t>
+    <t>4201118395</t>
+  </si>
+  <si>
+    <t>4201118043</t>
+  </si>
+  <si>
+    <t>90000006012</t>
+  </si>
+  <si>
+    <t>43061101800</t>
+  </si>
+  <si>
+    <t>90000008724</t>
+  </si>
+  <si>
+    <t>43061104555</t>
+  </si>
+  <si>
+    <t>43061109604</t>
+  </si>
+  <si>
+    <t>90000047000</t>
+  </si>
+  <si>
+    <t>43061104892</t>
+  </si>
+  <si>
+    <t>43061110163</t>
+  </si>
+  <si>
+    <t>90000045498</t>
+  </si>
+  <si>
+    <t>90000003726</t>
+  </si>
+  <si>
+    <t>43061100760</t>
+  </si>
+  <si>
+    <t>90000029247</t>
+  </si>
+  <si>
+    <t>90000044336</t>
+  </si>
+  <si>
+    <t>43061101908</t>
+  </si>
+  <si>
+    <t>4201117970</t>
+  </si>
+  <si>
+    <t>90000030489</t>
+  </si>
+  <si>
+    <t>43061000918</t>
+  </si>
+  <si>
+    <t>90000041601</t>
+  </si>
+  <si>
+    <t>43061100261</t>
+  </si>
+  <si>
+    <t>90000019175</t>
   </si>
   <si>
     <t>43061100638</t>
   </si>
   <si>
+    <t>43061109928</t>
+  </si>
+  <si>
+    <t>43061109445</t>
+  </si>
+  <si>
+    <t>90000011704</t>
+  </si>
+  <si>
+    <t>90000027006</t>
+  </si>
+  <si>
     <t>90000042935</t>
   </si>
   <si>
-    <t>90000029247</t>
-  </si>
-  <si>
-    <t>43061101800</t>
-  </si>
-  <si>
-    <t>4201118395</t>
-  </si>
-  <si>
-    <t>43061109928</t>
-  </si>
-  <si>
-    <t>90000011704</t>
-  </si>
-  <si>
-    <t>43061109625</t>
+    <t>43061101410</t>
+  </si>
+  <si>
+    <t>43061104704</t>
+  </si>
+  <si>
+    <t>43061101018</t>
+  </si>
+  <si>
+    <t>90000030491</t>
+  </si>
+  <si>
+    <t>90000033264</t>
+  </si>
+  <si>
+    <t>43061101046</t>
+  </si>
+  <si>
+    <t>90000040569</t>
+  </si>
+  <si>
+    <t>43061109315</t>
+  </si>
+  <si>
+    <t>43061000939</t>
+  </si>
+  <si>
+    <t>4306110224</t>
+  </si>
+  <si>
+    <t>43061101289</t>
+  </si>
+  <si>
+    <t>43061100434</t>
+  </si>
+  <si>
+    <t>90000041133</t>
+  </si>
+  <si>
+    <t>90000020550</t>
+  </si>
+  <si>
+    <t>90000049228</t>
+  </si>
+  <si>
+    <t>43061109296</t>
+  </si>
+  <si>
+    <t>43061000925</t>
+  </si>
+  <si>
+    <t>43061000683</t>
+  </si>
+  <si>
+    <t>43061109109</t>
+  </si>
+  <si>
+    <t>43061100715</t>
+  </si>
+  <si>
+    <t>43061109378</t>
+  </si>
+  <si>
+    <t>90000034068</t>
+  </si>
+  <si>
+    <t>43061000942</t>
+  </si>
+  <si>
+    <t>43061100998</t>
+  </si>
+  <si>
+    <t>43061110086</t>
+  </si>
+  <si>
+    <t>90000030738</t>
+  </si>
+  <si>
+    <t>43061109822</t>
+  </si>
+  <si>
+    <t>90000031237</t>
+  </si>
+  <si>
+    <t>43061100743</t>
+  </si>
+  <si>
+    <t>43061193121</t>
+  </si>
+  <si>
+    <t>43061000146</t>
+  </si>
+  <si>
+    <t>43061109987</t>
+  </si>
+  <si>
+    <t>90000022235</t>
+  </si>
+  <si>
+    <t>90000023957</t>
+  </si>
+  <si>
+    <t>90000027463</t>
   </si>
   <si>
     <t>90000022393</t>
   </si>
   <si>
-    <t>4201117970</t>
-  </si>
-  <si>
-    <t>43061100760</t>
-  </si>
-  <si>
-    <t>90000030491</t>
-  </si>
-  <si>
-    <t>90000045498</t>
-  </si>
-  <si>
-    <t>43061109604</t>
-  </si>
-  <si>
-    <t>43061100261</t>
-  </si>
-  <si>
-    <t>90000041601</t>
-  </si>
-  <si>
-    <t>90000003726</t>
-  </si>
-  <si>
-    <t>43061000146</t>
-  </si>
-  <si>
-    <t>43061100743</t>
-  </si>
-  <si>
-    <t>43061100434</t>
-  </si>
-  <si>
-    <t>43061000991</t>
-  </si>
-  <si>
-    <t>43061101018</t>
-  </si>
-  <si>
-    <t>43061109445</t>
-  </si>
-  <si>
-    <t>43061101289</t>
-  </si>
-  <si>
-    <t>43061101046</t>
-  </si>
-  <si>
-    <t>90000019175</t>
-  </si>
-  <si>
-    <t>90000033264</t>
-  </si>
-  <si>
-    <t>43061100351</t>
-  </si>
-  <si>
-    <t>90000027006</t>
-  </si>
-  <si>
-    <t>90000044336</t>
-  </si>
-  <si>
-    <t>43061101144</t>
-  </si>
-  <si>
-    <t>43061101077</t>
-  </si>
-  <si>
-    <t>43061110093</t>
-  </si>
-  <si>
-    <t>43061104555</t>
-  </si>
-  <si>
-    <t>90000020550</t>
-  </si>
-  <si>
-    <t>43061110163</t>
-  </si>
-  <si>
-    <t>90000023957</t>
-  </si>
-  <si>
-    <t>90000040569</t>
-  </si>
-  <si>
-    <t>90000027463</t>
-  </si>
-  <si>
-    <t>43061109315</t>
-  </si>
-  <si>
-    <t>43061101908</t>
-  </si>
-  <si>
-    <t>43061101504</t>
-  </si>
-  <si>
-    <t>43061110099</t>
-  </si>
-  <si>
-    <t>43061109423</t>
-  </si>
-  <si>
-    <t>43061000192</t>
-  </si>
-  <si>
-    <t>43061000683</t>
-  </si>
-  <si>
-    <t>43061109618</t>
-  </si>
-  <si>
-    <t>43061101378</t>
-  </si>
-  <si>
-    <t>43061101392</t>
-  </si>
-  <si>
-    <t>43061104122</t>
-  </si>
-  <si>
-    <t>43061104682</t>
-  </si>
-  <si>
-    <t>90000030489</t>
+    <t>43061109175</t>
+  </si>
+  <si>
+    <t>43061104345</t>
+  </si>
+  <si>
+    <t>43061100438</t>
+  </si>
+  <si>
+    <t>90000026236</t>
+  </si>
+  <si>
+    <t>43061100275</t>
+  </si>
+  <si>
+    <t>90000045908</t>
+  </si>
+  <si>
+    <t>43061109670</t>
+  </si>
+  <si>
+    <t>90000003418</t>
   </si>
   <si>
     <t>90000012105</t>
   </si>
   <si>
-    <t>43061109175</t>
-  </si>
-  <si>
     <t>43061109826</t>
   </si>
   <si>
-    <t>43061000916</t>
+    <t>43061100422</t>
   </si>
   <si>
     <t>43061109713</t>
   </si>
   <si>
-    <t>43061104719</t>
-  </si>
-  <si>
-    <t>90000045908</t>
-  </si>
-  <si>
-    <t>43061100210</t>
-  </si>
-  <si>
-    <t>43061100932</t>
-  </si>
-  <si>
-    <t>43061109378</t>
-  </si>
-  <si>
-    <t>43061001723</t>
-  </si>
-  <si>
-    <t>43061101262</t>
-  </si>
-  <si>
-    <t>43061101084</t>
-  </si>
-  <si>
-    <t>43061101459</t>
-  </si>
-  <si>
-    <t>4301901720</t>
-  </si>
-  <si>
-    <t>430190938</t>
-  </si>
-  <si>
-    <t>43061101349</t>
-  </si>
-  <si>
     <t>Niramoy Pharmacy</t>
   </si>
   <si>
-    <t>Jesmin Parmacy</t>
-  </si>
-  <si>
-    <t>Ruma Pharmacy</t>
+    <t>Molla Pharmacy</t>
+  </si>
+  <si>
+    <t>The Medical Center</t>
+  </si>
+  <si>
+    <t>Al Bab Medical Hall</t>
+  </si>
+  <si>
+    <t>Renasase Med Centre</t>
+  </si>
+  <si>
+    <t>Shefa Clinic</t>
+  </si>
+  <si>
+    <t>Opu Pharmacy</t>
+  </si>
+  <si>
+    <t>Dr Eanur</t>
+  </si>
+  <si>
+    <t>Doctor Bari Pharmacy</t>
+  </si>
+  <si>
+    <t>Dr Belal Med Hall</t>
+  </si>
+  <si>
+    <t>Salam Medicine Corner</t>
+  </si>
+  <si>
+    <t>Abdullah Pharmacy</t>
+  </si>
+  <si>
+    <t>M S Selina Drug House</t>
+  </si>
+  <si>
+    <t>Kamal Pharmacy</t>
+  </si>
+  <si>
+    <t>Amena Medical Stor</t>
+  </si>
+  <si>
+    <t>Maa Fatema Medical Hall</t>
+  </si>
+  <si>
+    <t>Ashif Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bishwa Nath Medical </t>
+  </si>
+  <si>
+    <t>Emon Pharmacy</t>
+  </si>
+  <si>
+    <t>Orient Pharmacy</t>
+  </si>
+  <si>
+    <t>Ritu Pharmacy</t>
+  </si>
+  <si>
+    <t>Anower Medical Hall</t>
+  </si>
+  <si>
+    <t>Nipa Pharmacy</t>
   </si>
   <si>
     <t>Janasheba Pharmacy</t>
   </si>
   <si>
+    <t>Sarder Medical</t>
+  </si>
+  <si>
+    <t>Nahar Pharmacy</t>
+  </si>
+  <si>
+    <t>Chitholia Medical Store</t>
+  </si>
+  <si>
+    <t>Medicine Corner</t>
+  </si>
+  <si>
     <t>Islamia Pharmacy</t>
   </si>
   <si>
-    <t>Amena Medical Stor</t>
-  </si>
-  <si>
-    <t>Renasase Med Centre</t>
-  </si>
-  <si>
-    <t>Molla Pharmacy</t>
-  </si>
-  <si>
-    <t>Sarder Medical</t>
-  </si>
-  <si>
-    <t>Chitholia Medical Store</t>
-  </si>
-  <si>
-    <t>Siddik Pharmacy</t>
+    <t>Arko Pharmacy</t>
+  </si>
+  <si>
+    <t>Joti Pharmacy</t>
+  </si>
+  <si>
+    <t>Samsul Alam PHARMACY</t>
+  </si>
+  <si>
+    <t>Papri Pharmacy</t>
+  </si>
+  <si>
+    <t>Biswas Pharmacy</t>
+  </si>
+  <si>
+    <t>Zaman Pharmacy</t>
+  </si>
+  <si>
+    <t>Dr Dablu</t>
+  </si>
+  <si>
+    <t>Bulbul Pharmacy</t>
+  </si>
+  <si>
+    <t>Tultul Medicare</t>
+  </si>
+  <si>
+    <t>Nafiz Pharmacy</t>
+  </si>
+  <si>
+    <t>Remidy Pharmacy</t>
+  </si>
+  <si>
+    <t>M S kushtia Optical</t>
+  </si>
+  <si>
+    <t>Habib Medical Hall</t>
+  </si>
+  <si>
+    <t>United Clinic</t>
+  </si>
+  <si>
+    <t>Mahbub Pharmacy</t>
+  </si>
+  <si>
+    <t>Romesh Clinic</t>
+  </si>
+  <si>
+    <t>Royal Pharmacy</t>
+  </si>
+  <si>
+    <t>Nipu Pharmacy</t>
+  </si>
+  <si>
+    <t>Bangladesh Pharmacy</t>
+  </si>
+  <si>
+    <t>Khalid And Abir Pharmacy</t>
+  </si>
+  <si>
+    <t>Jim Pharmacy</t>
+  </si>
+  <si>
+    <t>Jibon Pharmacy</t>
+  </si>
+  <si>
+    <t>Tohid Pharmacy</t>
+  </si>
+  <si>
+    <t>Jaci Pharmacy</t>
+  </si>
+  <si>
+    <t>Biozid Pharmacy</t>
+  </si>
+  <si>
+    <t>Bismillah Clinic</t>
+  </si>
+  <si>
+    <t>Uposhom Narsing Home</t>
+  </si>
+  <si>
+    <t>Maha Maya Pharmacy</t>
+  </si>
+  <si>
+    <t>Lokman Clinic</t>
+  </si>
+  <si>
+    <t>Medinova Center</t>
+  </si>
+  <si>
+    <t>Ster Pharmacy</t>
+  </si>
+  <si>
+    <t>Anisha Pharmacy</t>
+  </si>
+  <si>
+    <t>Bhai Bhai Pharmacy</t>
+  </si>
+  <si>
+    <t>Maya Medical Hall</t>
   </si>
   <si>
     <t>Rashida Medical Hall</t>
   </si>
   <si>
-    <t xml:space="preserve">Bishwa Nath Medical </t>
-  </si>
-  <si>
-    <t>Kamal Pharmacy</t>
-  </si>
-  <si>
-    <t>Papri Pharmacy</t>
-  </si>
-  <si>
-    <t>Abdullah Pharmacy</t>
-  </si>
-  <si>
-    <t>Dr Eanur</t>
-  </si>
-  <si>
-    <t>Anower Medical Hall</t>
-  </si>
-  <si>
-    <t>Ritu Pharmacy</t>
-  </si>
-  <si>
-    <t>M S Selina Drug House</t>
-  </si>
-  <si>
-    <t>Medinova Center</t>
-  </si>
-  <si>
-    <t>Maha Maya Pharmacy</t>
-  </si>
-  <si>
-    <t>Remidy Pharmacy</t>
-  </si>
-  <si>
-    <t>Ahmed Pharmacy</t>
-  </si>
-  <si>
-    <t>Samsul Alam PHARMACY</t>
-  </si>
-  <si>
-    <t>Nahar Pharmacy</t>
-  </si>
-  <si>
-    <t>Nafiz Pharmacy</t>
-  </si>
-  <si>
-    <t>Zaman Pharmacy</t>
-  </si>
-  <si>
-    <t>Nipa Pharmacy</t>
-  </si>
-  <si>
-    <t>Biswas Pharmacy</t>
-  </si>
-  <si>
-    <t>Zaved Pharmacy</t>
-  </si>
-  <si>
-    <t>Medicine Corner</t>
-  </si>
-  <si>
-    <t>Maa Fatema Medical Hall</t>
-  </si>
-  <si>
-    <t>Mahabub Pharmacy</t>
-  </si>
-  <si>
-    <t>Jannati Pharmacy</t>
-  </si>
-  <si>
-    <t>Sarker Pharmacy</t>
-  </si>
-  <si>
-    <t>Opu Pharmacy</t>
-  </si>
-  <si>
-    <t>Habib Medical Hall</t>
-  </si>
-  <si>
-    <t>Salam Medicine Corner</t>
-  </si>
-  <si>
-    <t>Bhai Bhai Pharmacy</t>
-  </si>
-  <si>
-    <t>Maya Medical Hall</t>
-  </si>
-  <si>
-    <t>Dr Dablu</t>
-  </si>
-  <si>
-    <t>Ashif Pharmacy</t>
-  </si>
-  <si>
-    <t>Ali Pharmacy</t>
-  </si>
-  <si>
-    <t>Sithi Drug House</t>
-  </si>
-  <si>
-    <t>Kushtia Surgical</t>
-  </si>
-  <si>
-    <t>Islami Hospital</t>
-  </si>
-  <si>
-    <t>Royal Pharmacy</t>
-  </si>
-  <si>
-    <t>Ashraful Pharmacy</t>
-  </si>
-  <si>
-    <t>H Pharmacy</t>
-  </si>
-  <si>
-    <t>Uttom Drug House</t>
-  </si>
-  <si>
-    <t>Maa Medical Hall</t>
-  </si>
-  <si>
-    <t>Sonar Bangla Pharmacy</t>
-  </si>
-  <si>
-    <t>Emon Pharmacy</t>
+    <t>Joy Pharmacy</t>
+  </si>
+  <si>
+    <t>Seraton Medical Hall</t>
+  </si>
+  <si>
+    <t>Tuhin Pharmacy</t>
+  </si>
+  <si>
+    <t>Kazi Pharmacy</t>
+  </si>
+  <si>
+    <t>Dr Alauddin</t>
+  </si>
+  <si>
+    <t>Gangni Sono Diagnostic&amp;Clinic</t>
+  </si>
+  <si>
+    <t>Salam Pharmacy</t>
+  </si>
+  <si>
+    <t>Bismillah Pharmacy &amp; Chikitsha</t>
   </si>
   <si>
     <t>Sazu Drug House</t>
   </si>
   <si>
-    <t>Joy Pharmacy</t>
-  </si>
-  <si>
     <t>M S Nupur Pharmacy</t>
   </si>
   <si>
-    <t>Mithun Drug House</t>
+    <t>Bajlo Medical Holl</t>
   </si>
   <si>
     <t>Life Care Pharmacy</t>
   </si>
   <si>
-    <t>Limon Drug House</t>
-  </si>
-  <si>
-    <t>Gangni Sono Diagnostic&amp;Clinic</t>
-  </si>
-  <si>
-    <t>Health Care</t>
-  </si>
-  <si>
-    <t>Sumaya Medical Hall</t>
-  </si>
-  <si>
-    <t>Khalid And Abir Pharmacy</t>
-  </si>
-  <si>
-    <t>Selim Pharmacy</t>
-  </si>
-  <si>
-    <t>Star Pharmacy</t>
-  </si>
-  <si>
-    <t>Mim Pharmacy</t>
-  </si>
-  <si>
-    <t>Janoni Pharmacy</t>
-  </si>
-  <si>
-    <t>Adhikari Pharmacy</t>
-  </si>
-  <si>
-    <t>Khandokar Pharmacy</t>
-  </si>
-  <si>
-    <t>Synthia Care Clinic</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chand Market Gorahmara Shimultala                           </t>
   </si>
   <si>
-    <t xml:space="preserve">Jhawdia Bazar Bittipara                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polish Line Magura                                          </t>
+    <t xml:space="preserve">Pangsha Bzaer Rajbari                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Fornt of Upzela Pangsha                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamalpur,Shampur,Daulotpur                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khalishakundi Mirpur                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ershadpur, Alamdanga                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dorshona Bus Stand Dorshona                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sahapur Andulbaria Jibonnagar                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badargonj Bazar.Choudanga                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allardorga Bazar ,Daulotpur                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurulgachi Bazar Dorshona Chuadanga                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halt Station Dorsona                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fultola Chowrhas More                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goal Para Bazar Jhenaidha                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allardarga Bazar.Doulatpur Kushtia.                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nandolaur.Kumarkhali.Kushtia                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Road Kushtia                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tatulia Bazar Baliakandi                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raghunatpur.Chuadanga                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circit House Meherpur                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdalpur Bazar,Kushtia.                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andol Baria Jibonnagar Chuadanga                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuchiamara Bazar                                            </t>
   </si>
   <si>
     <t xml:space="preserve">Amerchara more Parbotipur Horinakundo                       </t>
   </si>
   <si>
+    <t xml:space="preserve">Baliasisa Sherpur Mirpur                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital gate Meherpur meherpur Meherpur                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chitholia Bazar, Mirpur                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuchiamora Bazar,Bheramara                                  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Maspara Bazar,Pangsha.Rajbari                               </t>
   </si>
   <si>
-    <t xml:space="preserve">Allardarga Bazar.Doulatpur Kushtia.                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khalishakundi Mirpur                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pangsha Bzaer Rajbari                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baliasisa Sherpur Mirpur                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chitholia Bazar, Mirpur                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shauta Bridge Badh Bazar Panti Kushtia                      </t>
+    <t xml:space="preserve">Sastripur Vadalia Kushtia                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vadalia Bazar Kushtia                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hemayatpur  Bazar Gangni Meherpur                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roghunatpur.Chuadanga.                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toltoli ParaDaulatpur Kushtia.                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bashbaria Bazar Gangni Meherpur                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Railway Gate.Haksha Bazar.Mirpur.Kushtia.                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boliarpur Bazar Baradi Meherpur                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gangni Bazar Meherpur                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kedergonj Bazar Chuadanga                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Godawan More,Main Road Bheramara                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khaskorra Bazar Sarojgonj                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N S Road Toffazzol Health care                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KederGonj Bazar, Mujibnagar                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Road Choudanga                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patika Bari Phorada Kushtia                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mollik Para Meherpur                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">School Market Shoilokupa                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hatfajilpur Bazar Shoilokupa                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three Number Panir Tank Adarsha Para Jhenaidha              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Gate Horinakundu Jhenidah                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haravanga Possimpara Poscimpara                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bamundi Bazar                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dariapur Bazar Mujibnagar                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chitulia Mirpur Kushtia                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R S Market.Kushtia                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanabil More Jugia Kushtia                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Road.Choudanga.                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tikari More Jhenaidha                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">College Para Alamdanga                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Court Road Chuadanga                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hazi More Alamdanga                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Road,Alamdanga                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Komorpur,Mujibnagar                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osmanpur,Khoksha                                            </t>
   </si>
   <si>
     <t xml:space="preserve">Polash Market Rajbari Road Boharpur Bazar Rajbari           </t>
   </si>
   <si>
-    <t xml:space="preserve">Tatulia Bazar Baliakandi                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goal Para Bazar Jhenaidha                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roghunatpur.Chuadanga.                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halt Station Dorsona                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sahapur Andulbaria Jibonnagar                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andol Baria Jibonnagar Chuadanga                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abdalpur Bazar,Kushtia.                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fultola Chowrhas More                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Court Road Chuadanga                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tikari More Jhenaidha                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khaskorra Bazar Sarojgonj                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Razzaque Super Market Kushtia                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hemayatpur  Bazar Gangni Meherpur                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital gate Meherpur meherpur Meherpur                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Godawan More,Main Road Bheramara                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bashbaria Bazar Gangni Meherpur                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuchiamara Bazar                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toltoli ParaDaulatpur Kushtia.                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andulbaria Bazar Darshona                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuchiamora Bazar,Bheramara                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nandolaur.Kumarkhali.Kushtia                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potherhat Bazar Sattajitpur                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gazir More Mohammad Pur                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jogoti Rail Bazar Jogoti Kushtia                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dorshona Bus Stand Dorshona                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KederGonj Bazar, Mujibnagar                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kurulgachi Bazar Dorshona Chuadanga                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Komorpur,Mujibnagar                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Railway Gate.Haksha Bazar.Mirpur.Kushtia.                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osmanpur,Khoksha                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boliarpur Bazar Baradi Meherpur                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Road Kushtia                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joy Bangla Bazar Panti                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singra Bazar Arpara Magura                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kataikhana More Kushtia                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Road Chuadanga                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">School Market Shoilokupa                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patikabari Halsa                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halsa Bazar Mirpur                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr Kartick Madhupur Bazar Panti                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nagra Bazar Mohammadpur Magura                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raghunatpur.Chuadanga                                       </t>
+    <t xml:space="preserve">Notun Bazar Mirpur.                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C O Rabiul Islam Razarhat More Kushtia                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badargonj Bazar Chuadanga                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damurhuda Bazar                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gurdah Bazar Jibonnagar                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Bazar Gangni Meherpur                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panti Bazar Kumarkhali                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 No. Bridge, Bheramara                                     </t>
   </si>
   <si>
     <t xml:space="preserve">Beside of Hasan Clinic Jhinaidah                            </t>
   </si>
   <si>
-    <t xml:space="preserve">Notun Bazar Mirpur.                                         </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sarojgonj Bazar Chuadanga                                   </t>
   </si>
   <si>
-    <t xml:space="preserve">Kedergonj Bazar Mojibnagor                                  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Shanti Para Choudanga                                       </t>
   </si>
   <si>
-    <t xml:space="preserve">Hospital Road Chuadanga Chuadanga                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Bazar Gangni Meherpur                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dawlotdiar Chuadanga                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Gate Kedargonj Meherpur                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Gate Horinakundu Jhenidah                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amla Bazar Mirpur                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kumarkhali Kushtia                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Itvata Bazar Laxmipur Laxmipur                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bunagati Bazar Magura                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thana More Daulotpur                                        </t>
-  </si>
-  <si>
     <t xml:space="preserve">KC35                                                        </t>
   </si>
   <si>
-    <t xml:space="preserve">KC15                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR71                                                        </t>
+    <t xml:space="preserve">KC82                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC81                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC32                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC33                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC63                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC53                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC65                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC34                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC11                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC45                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC22                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC24                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC83                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC71                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC13                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC31                                                        </t>
   </si>
   <si>
     <t xml:space="preserve">KC44                                                        </t>
   </si>
   <si>
-    <t xml:space="preserve">KC82                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC34                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC33                                                        </t>
+    <t xml:space="preserve">KC72                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC73                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC14                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC51                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC74                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC61                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC43                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC42                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC75                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC21                                                        </t>
   </si>
   <si>
     <t xml:space="preserve">KC25                                                        </t>
   </si>
   <si>
-    <t xml:space="preserve">KC83                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC45                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC53                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC13                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC11                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC51                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC42                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC65                                                        </t>
-  </si>
-  <si>
     <t xml:space="preserve">KC12                                                        </t>
   </si>
   <si>
-    <t xml:space="preserve">KC73                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC72                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC31                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC22                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR63                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC74                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC14                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC24                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR72                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC43                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC61                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR64                                                        </t>
+    <t xml:space="preserve">KC62                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC52                                                        </t>
   </si>
   <si>
     <t xml:space="preserve">KC41                                                        </t>
   </si>
   <si>
-    <t xml:space="preserve">KC32                                                        </t>
-  </si>
-  <si>
     <t xml:space="preserve">SKINV430-502523     </t>
   </si>
   <si>
-    <t xml:space="preserve">SKINV430-553218     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-557365     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-570783     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-571314     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-571506     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-571362     </t>
-  </si>
-  <si>
     <t xml:space="preserve">SKINV430-571195     </t>
   </si>
   <si>
-    <t xml:space="preserve">SKINV430-571499     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-571429     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-559445     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-571596     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-571605     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-571961     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-571902     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-571975     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-571760     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-572066     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-571709     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-571669     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-559815     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-571756     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-572369     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-560178     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-572398     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-572394     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-560386     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-572128     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-572869     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-572717     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-560954     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-572800     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-572884     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-560543     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-560540     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-560755     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-573485     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-573205     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-573482     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-573206     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-573342     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-561228     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-573272     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-573196     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-561238     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-561672     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-561721     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-562328     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-573993     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-562287     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-562064     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-562047     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-562374     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-562503     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-575096     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-562744     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-562862     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-563105     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-563023     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-562782     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-562948     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-563084     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-563025     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-562907     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-562970     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-563345     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-563480     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-563514     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-563351     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-563266     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-563273     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKINV430-563329     </t>
+    <t xml:space="preserve">SKINV430-576011     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-577547     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-577428     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-566768     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-580913     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-580688     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-581127     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-581443     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-581951     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-582184     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-582233     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-582653     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-583047     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-583079     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-583086     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-583463     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-583568     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-570942     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-583404     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-583527     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-583837     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-583691     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-583703     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-584155     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-583712     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-583696     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-584517     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-572113     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-572081     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-584974     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-584879     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-584537     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-584563     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-584699     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-584622     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-572472     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-572232     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-572957     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-585229     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-585407     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-585674     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-573360     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-573573     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-585472     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-585514     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-573816     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-573992     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-573985     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-586873     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-586943     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-586709     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-574612     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-587310     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-587258     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-574475     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-574932     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-587244     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-574922     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-574903     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-588040     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-588028     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-587780     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-575286     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-588179     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-575953     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-576198     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-588293     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-588531     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-576326     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-576208     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-589079     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-588913     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-576760     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-589020     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-576634     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-577140     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-577179     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-577075     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKINV430-577036     </t>
   </si>
   <si>
     <t>05 Aug 2020</t>
   </si>
   <si>
-    <t>19 Nov 2020</t>
-  </si>
-  <si>
-    <t>29 Nov 2020</t>
+    <t>03 Jan 2021</t>
+  </si>
+  <si>
+    <t>13 Jan 2021</t>
+  </si>
+  <si>
+    <t>17 Jan 2021</t>
+  </si>
+  <si>
+    <t>21 Dec 2020</t>
+  </si>
+  <si>
+    <t>25 Jan 2021</t>
+  </si>
+  <si>
+    <t>26 Jan 2021</t>
+  </si>
+  <si>
+    <t>27 Jan 2021</t>
+  </si>
+  <si>
+    <t>28 Jan 2021</t>
+  </si>
+  <si>
+    <t>29 Jan 2021</t>
+  </si>
+  <si>
+    <t>30 Jan 2021</t>
+  </si>
+  <si>
+    <t>31 Jan 2021</t>
+  </si>
+  <si>
+    <t>01 Feb 2021</t>
   </si>
   <si>
     <t>02 Jan 2021</t>
   </si>
   <si>
-    <t>03 Jan 2021</t>
-  </si>
-  <si>
-    <t>04 Dec 2020</t>
+    <t>02 Feb 2021</t>
+  </si>
+  <si>
+    <t>03 Feb 2021</t>
   </si>
   <si>
     <t>04 Jan 2021</t>
   </si>
   <si>
-    <t>05 Dec 2020</t>
+    <t>04 Feb 2021</t>
   </si>
   <si>
     <t>05 Jan 2021</t>
   </si>
   <si>
-    <t>06 Dec 2020</t>
-  </si>
-  <si>
     <t>06 Jan 2021</t>
   </si>
   <si>
-    <t>07 Dec 2020</t>
+    <t>06 Feb 2021</t>
   </si>
   <si>
     <t>07 Jan 2021</t>
   </si>
   <si>
-    <t>08 Dec 2020</t>
-  </si>
-  <si>
-    <t>09 Dec 2020</t>
-  </si>
-  <si>
-    <t>10 Dec 2020</t>
-  </si>
-  <si>
     <t>09 Jan 2021</t>
   </si>
   <si>
-    <t>11 Dec 2020</t>
+    <t>09 Feb 2021</t>
+  </si>
+  <si>
+    <t>10 Jan 2021</t>
+  </si>
+  <si>
+    <t>10 Feb 2021</t>
   </si>
   <si>
     <t>11 Jan 2021</t>
   </si>
   <si>
-    <t>12 Dec 2020</t>
-  </si>
-  <si>
-    <t>13 Dec 2020</t>
+    <t>11 Feb 2021</t>
+  </si>
+  <si>
+    <t>12 Jan 2021</t>
+  </si>
+  <si>
+    <t>12 Feb 2021</t>
+  </si>
+  <si>
+    <t>14 Jan 2021</t>
+  </si>
+  <si>
+    <t>13 Feb 2021</t>
+  </si>
+  <si>
+    <t>14 Feb 2021</t>
+  </si>
+  <si>
+    <t>15 Jan 2021</t>
+  </si>
+  <si>
+    <t>16 Jan 2021</t>
   </si>
 </sst>
 </file>
@@ -1406,7 +1532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1461,28 +1587,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E2" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="F2" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="G2" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="H2">
         <v>30</v>
       </c>
       <c r="I2">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="J2">
-        <v>5087.96</v>
+        <v>3587.96</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1493,28 +1619,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E3" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="F3" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="G3" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="H3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="J3">
-        <v>3380.29</v>
+        <v>3379.15</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1525,28 +1651,28 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E4" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="F4" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="G4" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="H4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="J4">
-        <v>6761.08</v>
+        <v>22984.02</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1557,28 +1683,28 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E5" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="F5" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="G5" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="J5">
-        <v>11874.07</v>
+        <v>29944.37</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1589,28 +1715,28 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="E6" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="F6" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="G6" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J6">
-        <v>50025.66</v>
+        <v>20040.05</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1621,28 +1747,28 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="E7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="F7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="G7" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="J7">
-        <v>30047.96</v>
+        <v>12000.73</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1653,28 +1779,28 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E8" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="F8" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="G8" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J8">
-        <v>19879.04</v>
+        <v>19458.12</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1685,28 +1811,28 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E9" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="F9" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="G9" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J9">
-        <v>14879.15</v>
+        <v>9839.27</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1717,28 +1843,28 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E10" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="F10" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="G10" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J10">
-        <v>12027.12</v>
+        <v>34716.14</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1749,28 +1875,28 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E11" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="F11" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="G11" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J11">
-        <v>6994.36</v>
+        <v>25198.49</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1781,28 +1907,28 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E12" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="F12" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="G12" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="H12">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J12">
-        <v>5036.26</v>
+        <v>19741.02</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1813,28 +1939,28 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E13" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F13" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="G13" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J13">
-        <v>20061.52</v>
+        <v>9954.200000000001</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1845,28 +1971,28 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="E14" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="F14" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="G14" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J14">
-        <v>20022.54</v>
+        <v>1500.95</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1877,28 +2003,28 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="E15" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="F15" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="G15" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J15">
-        <v>14906.48</v>
+        <v>12761.05</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1909,28 +2035,28 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="E16" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="F16" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="G16" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J16">
-        <v>14283.94</v>
+        <v>29871.3</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1941,28 +2067,28 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="E17" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="F17" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="G17" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J17">
-        <v>10026.5</v>
+        <v>5139.4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1973,28 +2099,28 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="E18" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="F18" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="G18" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J18">
-        <v>9697.969999999999</v>
+        <v>4953.19</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2005,28 +2131,28 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="E19" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="F19" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="G19" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J19">
-        <v>9628.540000000001</v>
+        <v>19940.27</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2037,28 +2163,28 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E20" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F20" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="G20" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J20">
-        <v>6672.56</v>
+        <v>19541.16</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2069,28 +2195,28 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="E21" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="F21" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="G21" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I21">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J21">
-        <v>3531.01</v>
+        <v>14914.1</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2101,28 +2227,28 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E22" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="F22" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="G22" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="H22">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J22">
-        <v>3055.69</v>
+        <v>9890.02</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2133,28 +2259,28 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E23" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="F23" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="G23" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J23">
-        <v>2711.12</v>
+        <v>9854.75</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2165,28 +2291,28 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E24" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="F24" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="G24" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J24">
-        <v>29599.91</v>
+        <v>24670.88</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2197,28 +2323,28 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E25" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="F25" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="G25" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="H25">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J25">
-        <v>29122.44</v>
+        <v>12211.04</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2229,28 +2355,28 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D26" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E26" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F26" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="G26" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J26">
-        <v>25122.84</v>
+        <v>12024.55</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2261,28 +2387,28 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="E27" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="F27" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="G27" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J27">
-        <v>10058.83</v>
+        <v>10114.4</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2293,28 +2419,28 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="E28" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F28" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="G28" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="H28">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J28">
-        <v>6000.51</v>
+        <v>7296.36</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2325,28 +2451,28 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D29" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E29" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="F29" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="G29" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J29">
-        <v>5069.6</v>
+        <v>4637.29</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2357,28 +2483,28 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="E30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F30" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="G30" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J30">
-        <v>23938.34</v>
+        <v>50010.13</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2389,28 +2515,28 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="E31" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="F31" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="G31" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I31">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J31">
-        <v>10019.89</v>
+        <v>9776.290000000001</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2421,28 +2547,28 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="E32" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="F32" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="G32" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="H32">
         <v>30</v>
       </c>
       <c r="I32">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J32">
-        <v>7106.32</v>
+        <v>424.73</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2453,28 +2579,28 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E33" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="F33" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="G33" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J33">
-        <v>6696.59</v>
+        <v>25067.7</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2485,28 +2611,28 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="E34" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F34" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="G34" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J34">
-        <v>5087.52</v>
+        <v>14684.18</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2517,28 +2643,28 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D35" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="E35" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F35" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="G35" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="H35">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J35">
-        <v>4965.46</v>
+        <v>10016.22</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2549,28 +2675,28 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D36" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E36" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="F36" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="G36" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="H36">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J36">
-        <v>3022.63</v>
+        <v>5199.22</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2581,28 +2707,28 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="E37" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="F37" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="G37" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="H37">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J37">
-        <v>2008.41</v>
+        <v>5098.41</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2613,28 +2739,28 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="E38" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="F38" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="G38" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J38">
-        <v>19851.56</v>
+        <v>5012.96</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2645,28 +2771,28 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D39" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="E39" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="F39" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="G39" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I39">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J39">
-        <v>17974.88</v>
+        <v>4593.46</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2677,28 +2803,28 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="E40" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="F40" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="G40" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I40">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J40">
-        <v>12471.99</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2709,28 +2835,28 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D41" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="E41" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="F41" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="G41" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I41">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J41">
-        <v>12018.88</v>
+        <v>12108.37</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2741,28 +2867,28 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="D42" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="E42" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F42" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="G42" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J42">
-        <v>5095.76</v>
+        <v>29957.98</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2773,28 +2899,28 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D43" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="E43" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="F43" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="G43" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="H43">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J43">
-        <v>5035</v>
+        <v>27165</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2805,28 +2931,28 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D44" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="E44" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="F44" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="G44" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J44">
-        <v>4798.89</v>
+        <v>18145.98</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2837,28 +2963,28 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D45" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E45" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="F45" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="G45" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I45">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J45">
-        <v>4023.52</v>
+        <v>13066.8</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2869,28 +2995,28 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D46" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="E46" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="F46" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="G46" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="H46">
         <v>30</v>
       </c>
       <c r="I46">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J46">
-        <v>3224</v>
+        <v>11947.81</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2901,28 +3027,28 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D47" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="E47" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="F47" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="G47" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="H47">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J47">
-        <v>6909.08</v>
+        <v>11750</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2933,28 +3059,28 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D48" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="E48" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="F48" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="G48" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="H48">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J48">
-        <v>5428.19</v>
+        <v>9970.299999999999</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2965,28 +3091,28 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D49" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="E49" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="F49" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="G49" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="H49">
         <v>30</v>
       </c>
       <c r="I49">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J49">
-        <v>12094.19</v>
+        <v>2276.1</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2997,28 +3123,28 @@
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D50" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="E50" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="F50" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="G50" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J50">
-        <v>10045.19</v>
+        <v>1861.92</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -3029,28 +3155,28 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D51" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="E51" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F51" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="G51" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="H51">
         <v>30</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J51">
-        <v>5746.02</v>
+        <v>1097.71</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -3061,28 +3187,28 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D52" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="E52" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="F52" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="G52" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="H52">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J52">
-        <v>4102.8</v>
+        <v>20013.86</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3093,28 +3219,28 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D53" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E53" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="F53" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="G53" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="H53">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J53">
-        <v>4012.03</v>
+        <v>16564.46</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3125,28 +3251,28 @@
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D54" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E54" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="F54" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="G54" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="H54">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J54">
-        <v>4957.22</v>
+        <v>12102.26</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3157,28 +3283,28 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D55" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E55" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F55" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="G55" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="H55">
         <v>30</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J55">
-        <v>3018.59</v>
+        <v>7128.02</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3189,28 +3315,28 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D56" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="E56" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="F56" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="G56" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J56">
-        <v>18854</v>
+        <v>20058.04</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3218,31 +3344,31 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="D57" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="E57" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="F57" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="G57" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="H57">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J57">
-        <v>16969.68</v>
+        <v>15059.09</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3250,31 +3376,31 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D58" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="E58" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="F58" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="G58" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="H58">
         <v>30</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J58">
-        <v>14982.92</v>
+        <v>10006.6</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3282,31 +3408,31 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E59" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="F59" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="G59" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="H59">
         <v>30</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J59">
-        <v>12114.13</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3314,31 +3440,31 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D60" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="E60" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="F60" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="G60" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="H60">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J60">
-        <v>12026.99</v>
+        <v>9966.129999999999</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3346,31 +3472,31 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D61" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="E61" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F61" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="G61" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="H61">
         <v>30</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J61">
-        <v>8169.29</v>
+        <v>7499.65</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3378,31 +3504,31 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D62" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="E62" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="F62" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="G62" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="H62">
         <v>30</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J62">
-        <v>4193.74</v>
+        <v>569.76</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3410,31 +3536,31 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D63" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E63" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F63" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="G63" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="H63">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J63">
-        <v>3559.13</v>
+        <v>30026.79</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3442,31 +3568,31 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D64" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="E64" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="F64" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="G64" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="H64">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J64">
-        <v>3062.51</v>
+        <v>29600.3</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3474,31 +3600,31 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D65" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="E65" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="F65" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="G65" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="H65">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J65">
-        <v>3009.54</v>
+        <v>12092.62</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3506,31 +3632,31 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D66" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="E66" t="s">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="F66" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="G66" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="H66">
         <v>30</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J66">
-        <v>938.27</v>
+        <v>5047.58</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3538,31 +3664,31 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D67" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="E67" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="F67" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="G67" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="H67">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J67">
-        <v>19977.54</v>
+        <v>20041.35</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3570,31 +3696,31 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D68" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="E68" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F68" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="G68" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="H68">
         <v>30</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J68">
-        <v>15468.68</v>
+        <v>19743.38</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3602,31 +3728,31 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D69" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="E69" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="F69" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="G69" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="H69">
         <v>30</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J69">
-        <v>7052.84</v>
+        <v>19968.87</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3634,31 +3760,31 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D70" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="E70" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="F70" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="G70" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="H70">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J70">
-        <v>5113.17</v>
+        <v>11808.51</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3666,31 +3792,31 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C71" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D71" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="E71" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="F71" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="G71" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="H71">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J71">
-        <v>5060.89</v>
+        <v>11317.8</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3698,31 +3824,31 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D72" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="E72" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="F72" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="G72" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="H72">
         <v>30</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J72">
-        <v>4971.65</v>
+        <v>9906.799999999999</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3730,31 +3856,319 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D73" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="E73" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F73" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="G73" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="H73">
         <v>30</v>
       </c>
       <c r="I73">
+        <v>3</v>
+      </c>
+      <c r="J73">
+        <v>9829.65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>89</v>
+      </c>
+      <c r="D74" t="s">
+        <v>165</v>
+      </c>
+      <c r="E74" t="s">
+        <v>241</v>
+      </c>
+      <c r="F74" t="s">
+        <v>343</v>
+      </c>
+      <c r="G74" t="s">
+        <v>384</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74">
+        <v>30220.79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" t="s">
+        <v>90</v>
+      </c>
+      <c r="D75" t="s">
+        <v>166</v>
+      </c>
+      <c r="E75" t="s">
+        <v>242</v>
+      </c>
+      <c r="F75" t="s">
+        <v>344</v>
+      </c>
+      <c r="G75" t="s">
+        <v>384</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <v>19993.39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" t="s">
+        <v>156</v>
+      </c>
+      <c r="D76" t="s">
+        <v>233</v>
+      </c>
+      <c r="E76" t="s">
+        <v>266</v>
+      </c>
+      <c r="F76" t="s">
+        <v>345</v>
+      </c>
+      <c r="G76" t="s">
+        <v>385</v>
+      </c>
+      <c r="H76">
+        <v>30</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>11983.27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>42</v>
+      </c>
+      <c r="C77" t="s">
+        <v>119</v>
+      </c>
+      <c r="D77" t="s">
+        <v>195</v>
+      </c>
+      <c r="E77" t="s">
+        <v>246</v>
+      </c>
+      <c r="F77" t="s">
+        <v>346</v>
+      </c>
+      <c r="G77" t="s">
+        <v>384</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77">
+        <v>9970.799999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" t="s">
+        <v>157</v>
+      </c>
+      <c r="D78" t="s">
+        <v>234</v>
+      </c>
+      <c r="E78" t="s">
+        <v>238</v>
+      </c>
+      <c r="F78" t="s">
+        <v>347</v>
+      </c>
+      <c r="G78" t="s">
+        <v>385</v>
+      </c>
+      <c r="H78">
+        <v>30</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>3203.76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" t="s">
+        <v>158</v>
+      </c>
+      <c r="D79" t="s">
+        <v>235</v>
+      </c>
+      <c r="E79" t="s">
+        <v>270</v>
+      </c>
+      <c r="F79" t="s">
+        <v>348</v>
+      </c>
+      <c r="G79" t="s">
+        <v>386</v>
+      </c>
+      <c r="H79">
+        <v>30</v>
+      </c>
+      <c r="I79">
         <v>1</v>
       </c>
-      <c r="J73">
-        <v>3000.94</v>
+      <c r="J79">
+        <v>16614.84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" t="s">
+        <v>159</v>
+      </c>
+      <c r="D80" t="s">
+        <v>236</v>
+      </c>
+      <c r="E80" t="s">
+        <v>245</v>
+      </c>
+      <c r="F80" t="s">
+        <v>349</v>
+      </c>
+      <c r="G80" t="s">
+        <v>386</v>
+      </c>
+      <c r="H80">
+        <v>30</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>12009.69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" t="s">
+        <v>160</v>
+      </c>
+      <c r="D81" t="s">
+        <v>221</v>
+      </c>
+      <c r="E81" t="s">
+        <v>259</v>
+      </c>
+      <c r="F81" t="s">
+        <v>350</v>
+      </c>
+      <c r="G81" t="s">
+        <v>386</v>
+      </c>
+      <c r="H81">
+        <v>30</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>9900.129999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" t="s">
+        <v>161</v>
+      </c>
+      <c r="D82" t="s">
+        <v>237</v>
+      </c>
+      <c r="E82" t="s">
+        <v>261</v>
+      </c>
+      <c r="F82" t="s">
+        <v>351</v>
+      </c>
+      <c r="G82" t="s">
+        <v>386</v>
+      </c>
+      <c r="H82">
+        <v>30</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>8081.9</v>
       </c>
     </row>
   </sheetData>
